--- a/StaffProject120.xlsx
+++ b/StaffProject120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="325">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,976 +23,970 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>looking for hidden treasures</t>
+    <t>Auric Goldfinger</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Bruce Lee</t>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>starring in musical comedies</t>
+  </si>
+  <si>
+    <t>Tina Turner</t>
+  </si>
+  <si>
+    <t>writing rock songs</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>singing experimental songs</t>
+  </si>
+  <si>
+    <t>Silvio Berlusconi</t>
+  </si>
+  <si>
+    <t>avoiding taxes</t>
+  </si>
+  <si>
+    <t>Newt Gingrich</t>
+  </si>
+  <si>
+    <t>running for the presidency</t>
+  </si>
+  <si>
+    <t>Ralph Nader</t>
+  </si>
+  <si>
+    <t>campaigning for consumer rights</t>
+  </si>
+  <si>
+    <t>G. Gordon Liddy</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>King Richard III</t>
+  </si>
+  <si>
+    <t>grabbing power</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>making prank calls</t>
+  </si>
+  <si>
+    <t>Deadpool</t>
+  </si>
+  <si>
+    <t>undermining authority</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Tim Burton</t>
+  </si>
+  <si>
+    <t>making bizarre movies</t>
+  </si>
+  <si>
+    <t>Chief Clarence Wiggum</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>Queen Elizabeth I</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Harriet Tubman</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>Lara Croft</t>
+  </si>
+  <si>
+    <t>unearthing ancient tombs</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>Robin Williams</t>
+  </si>
+  <si>
+    <t>making madcap comedies</t>
+  </si>
+  <si>
+    <t>Steve Bannon</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Caitlyn Jenner</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>Dominique Strauss-Kahn</t>
+  </si>
+  <si>
+    <t>throwing sex parties</t>
+  </si>
+  <si>
+    <t>Joseph Smith</t>
+  </si>
+  <si>
+    <t>recruiting dissidents</t>
+  </si>
+  <si>
+    <t>Sinead O'Connor</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Isaac Newton</t>
+  </si>
+  <si>
+    <t>studying mathematics</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>directing robot movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>giving speeches</t>
+  </si>
+  <si>
+    <t>Otto von Bismarck</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>promoting American values</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>hunting raccoons</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t>making movies</t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>Selma Bouvier</t>
+  </si>
+  <si>
+    <t>smoking Laramie Hi-Tars</t>
+  </si>
+  <si>
+    <t>Tiny Tim Cratchit</t>
+  </si>
+  <si>
+    <t>offering blessings</t>
+  </si>
+  <si>
+    <t>Michael O'Leary</t>
+  </si>
+  <si>
+    <t>selling cheap airline seats</t>
+  </si>
+  <si>
+    <t>Niccolò Paganini</t>
+  </si>
+  <si>
+    <t>playing the violin</t>
+  </si>
+  <si>
+    <t>Samuel Pepys</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>Pablo Escobar</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>Jason Voorhees</t>
+  </si>
+  <si>
+    <t>slashing victims</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>Modesty Blaise</t>
+  </si>
+  <si>
+    <t>pulling capers</t>
+  </si>
+  <si>
+    <t>Moe Szyslak</t>
+  </si>
+  <si>
+    <t>falling for prank calls</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>Hunter S. Thompson</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>General George Patton</t>
+  </si>
+  <si>
+    <t>slapping soldiers</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Kim Kardashian</t>
+  </si>
+  <si>
+    <t>flaunting buttocks</t>
+  </si>
+  <si>
+    <t>Robert Redford</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Ronald Reagan</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>winning cycling races</t>
+  </si>
+  <si>
+    <t>Mike  Pence</t>
+  </si>
+  <si>
+    <t>Chelsea Manning</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>King Lear</t>
+  </si>
+  <si>
+    <t>going senile</t>
+  </si>
+  <si>
+    <t>Sterling Archer</t>
   </si>
   <si>
     <t>performing kung-fu moves</t>
   </si>
   <si>
-    <t>CS</t>
+    <t>Billie Holiday</t>
+  </si>
+  <si>
+    <t>singing jazz songs</t>
+  </si>
+  <si>
+    <t>Julia Child</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>Joe Louis</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Uriah Heap</t>
+  </si>
+  <si>
+    <t>practicing insincerity</t>
+  </si>
+  <si>
+    <t>Montgomery Burns</t>
+  </si>
+  <si>
+    <t>counting money</t>
+  </si>
+  <si>
+    <t>Miss Jane Marple</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Mae West</t>
+  </si>
+  <si>
+    <t>trading innuendo</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
+  </si>
+  <si>
+    <t>Zac Efron</t>
+  </si>
+  <si>
+    <t>Kylie Minogue</t>
+  </si>
+  <si>
+    <t>Mayor Joe Quimby</t>
+  </si>
+  <si>
+    <t>embezzling tax money</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>Tyler Durden</t>
+  </si>
+  <si>
+    <t>making soap</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>Rainier Luftwaffe Wolfcastle</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>terrorizing Earth</t>
+  </si>
+  <si>
+    <t>Edward Snowden</t>
+  </si>
+  <si>
+    <t>Patch Adams</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>running gentleman's clubs</t>
+  </si>
+  <si>
+    <t>Annie Oakley</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>Steve Guttenberg</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>reading self-help books</t>
+  </si>
+  <si>
+    <t>telling zany jokes</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>writing weird movies</t>
+  </si>
+  <si>
+    <t>Adam West</t>
+  </si>
+  <si>
+    <t>wearing tights</t>
+  </si>
+  <si>
+    <t>Violet Baudelaire</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Pyotr Ilyich Tchaikovsky</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>convicting criminals</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>rescuing kids</t>
+  </si>
+  <si>
+    <t>Inspector Endeavour Morse</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>El Chappo</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Karl Marx</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>running assembly lines</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>collecting bounties on runaways</t>
+  </si>
+  <si>
+    <t>Joaquin Phoenix</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>Rick Deckard</t>
+  </si>
+  <si>
+    <t>retiring replicants</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Lars von Trier</t>
+  </si>
+  <si>
+    <t>making new wave movies</t>
+  </si>
+  <si>
+    <t>Pac Man</t>
+  </si>
+  <si>
+    <t>chasing electronic ghosts</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>Jeff Koons</t>
+  </si>
+  <si>
+    <t>selling kitsch</t>
+  </si>
+  <si>
+    <t>Kim Jong-Il</t>
+  </si>
+  <si>
+    <t>issuing threats</t>
+  </si>
+  <si>
+    <t>Sammy Davis Jr.</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>chasing old women</t>
+  </si>
+  <si>
+    <t>Willie Nelson</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Alexander the Great</t>
+  </si>
+  <si>
+    <t>building empires</t>
+  </si>
+  <si>
+    <t>John Travolta</t>
+  </si>
+  <si>
+    <t>playing camp villains</t>
+  </si>
+  <si>
+    <t>Ellen DeGeneres</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Lucille Ball</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>running races</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>insulting celebrities</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>Seth MacFarlane</t>
+  </si>
+  <si>
+    <t>making vulgar cartoons</t>
+  </si>
+  <si>
+    <t>amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Boris Johnson</t>
+  </si>
+  <si>
+    <t>making political gaffes</t>
+  </si>
+  <si>
+    <t>Michael Schumacher</t>
+  </si>
+  <si>
+    <t>racing fast cars</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>commanding a whaling ship</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>performing serious acting</t>
+  </si>
+  <si>
+    <t>Dana Scully</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Lizzy Bennet</t>
+  </si>
+  <si>
+    <t>disappointing suitors</t>
+  </si>
+  <si>
+    <t>Rain Man</t>
+  </si>
+  <si>
+    <t>counting tooth picks</t>
+  </si>
+  <si>
+    <t>Michael J. Fox</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>attacking consumerism</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>Jeff "Comic Book Guy" Albertson</t>
+  </si>
+  <si>
+    <t>spouting movie trivia</t>
+  </si>
+  <si>
+    <t>Polonius</t>
+  </si>
+  <si>
+    <t>coining sententious maxims</t>
+  </si>
+  <si>
+    <t>Dr. Evil</t>
+  </si>
+  <si>
+    <t>demanding ransoms from the U.N.</t>
+  </si>
+  <si>
+    <t>Tom Hanks</t>
+  </si>
+  <si>
+    <t>throwing Bunga Bunga parties</t>
+  </si>
+  <si>
+    <t>wallowing in mud</t>
+  </si>
+  <si>
+    <t>Ned Flanders</t>
+  </si>
+  <si>
+    <t>being a good neighbor</t>
+  </si>
+  <si>
+    <t>Zsa Zsa Gabor</t>
+  </si>
+  <si>
+    <t>collecting alimony</t>
+  </si>
+  <si>
+    <t>running a smuggling business</t>
+  </si>
+  <si>
+    <t>Jane Austen</t>
+  </si>
+  <si>
+    <t>writing romantic fiction</t>
+  </si>
+  <si>
+    <t>Hedda Gabler</t>
+  </si>
+  <si>
+    <t>frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>Willy Wonka</t>
+  </si>
+  <si>
+    <t>making chocolate</t>
+  </si>
+  <si>
+    <t>Hans Gruber</t>
+  </si>
+  <si>
+    <t>organizing armed robberies</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>working for the forces of darkness</t>
+  </si>
+  <si>
+    <t>campaigning for world peace</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>telling epic tales</t>
+  </si>
+  <si>
+    <t>Rupert Murdoch</t>
+  </si>
+  <si>
+    <t>publishing newspapers</t>
+  </si>
+  <si>
+    <t>Jerry Springer</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows</t>
+  </si>
+  <si>
+    <t>Joe DiMaggio</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>Meghan Markle</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>promoting socialism</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>Kim Jung-un</t>
+  </si>
+  <si>
+    <t>amassing nuclear weapons</t>
+  </si>
+  <si>
+    <t>R2D2</t>
+  </si>
+  <si>
+    <t>eluding imperial storm-troopers</t>
+  </si>
+  <si>
+    <t>Joan Crawford</t>
+  </si>
+  <si>
+    <t>Arya Stark</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>Dirty Harry Callahan</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
   </si>
   <si>
     <t>Julius Caesar</t>
   </si>
   <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>King Solomon</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>digging for antiquities</t>
-  </si>
-  <si>
-    <t>H.A.L. 9000</t>
-  </si>
-  <si>
-    <t>murdering astronauts</t>
-  </si>
-  <si>
-    <t>Ed Wood</t>
-  </si>
-  <si>
-    <t>writing bad movies</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Scarlett Johansson</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>working out</t>
-  </si>
-  <si>
-    <t>Dr. Strangelove</t>
-  </si>
-  <si>
-    <t>pushing the hardline</t>
-  </si>
-  <si>
-    <t>Oliver Cromwell</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>Frasier Crane</t>
-  </si>
-  <si>
-    <t>probing the mind</t>
-  </si>
-  <si>
-    <t>Caitlyn Jenner</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Ross Geller</t>
-  </si>
-  <si>
-    <t>studying paleontology</t>
-  </si>
-  <si>
-    <t>Hans Moleman</t>
-  </si>
-  <si>
-    <t>getting run over by cars</t>
-  </si>
-  <si>
-    <t>Monica Lewinsky</t>
-  </si>
-  <si>
-    <t>doing diet commercials</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>bridging cultures</t>
-  </si>
-  <si>
-    <t>Thomas Aquinas</t>
-  </si>
-  <si>
-    <t>spreading philosophy</t>
-  </si>
-  <si>
-    <t>Helen of Troy</t>
-  </si>
-  <si>
-    <t>worrying about adultery</t>
-  </si>
-  <si>
-    <t>Keith Moon</t>
-  </si>
-  <si>
-    <t>playing drums</t>
-  </si>
-  <si>
-    <t>Pope Benedict XVI</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth I</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>Saga Norén</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>Winona Ryder</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Matt Groening</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Carl Von Clausewitz</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>Ebenezer Scrooge</t>
-  </si>
-  <si>
-    <t>pinching pennies</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenneth Parcell </t>
-  </si>
-  <si>
-    <t>leading tour groups</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>drinking Duff beer</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>writing about history</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Anne Frank</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>Ralph Nader</t>
-  </si>
-  <si>
-    <t>campaigning for consumer rights</t>
-  </si>
-  <si>
-    <t>Linus Torvalds</t>
-  </si>
-  <si>
-    <t>promoting open-source software</t>
-  </si>
-  <si>
-    <t>Edward Snowden</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>Jeff Sessions</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Vincent Van Gogh</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>Margaret Thatcher</t>
-  </si>
-  <si>
-    <t>Tom Cruise</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>Kim Jung-un</t>
-  </si>
-  <si>
-    <t>issuing threats</t>
-  </si>
-  <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Tomás de Torquemada</t>
-  </si>
-  <si>
-    <t>extracting confessions</t>
-  </si>
-  <si>
-    <t>James Franco</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Coco Chanel</t>
-  </si>
-  <si>
-    <t>selling perfumes</t>
-  </si>
-  <si>
-    <t>Edward Cullen</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>Meghan Markle</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>Tom Waits</t>
-  </si>
-  <si>
-    <t>singing blues songs</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Charlie Harper</t>
-  </si>
-  <si>
-    <t>dating young women</t>
-  </si>
-  <si>
-    <t>Joseph Goebbels</t>
-  </si>
-  <si>
-    <t>running a propaganda machine</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>composing advertizing jingles</t>
-  </si>
-  <si>
-    <t>Selma Bouvier</t>
-  </si>
-  <si>
-    <t>clipping coupons</t>
-  </si>
-  <si>
-    <t>RuPaul</t>
-  </si>
-  <si>
-    <t>Antonio Salieri</t>
-  </si>
-  <si>
-    <t>burning with envy</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frodo Baggins</t>
-  </si>
-  <si>
-    <t>disposing of unwanted jewelry</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Green Lantern</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>Gustavo Fring</t>
-  </si>
-  <si>
-    <t>deep-frying chicken</t>
-  </si>
-  <si>
-    <t>John Grisham</t>
-  </si>
-  <si>
-    <t>writing legal fiction</t>
-  </si>
-  <si>
-    <t>Neil Armstrong</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Jaime Lannister</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>James Cook</t>
-  </si>
-  <si>
-    <t>opening new markets</t>
-  </si>
-  <si>
-    <t>Noël Coward</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Offred</t>
-  </si>
-  <si>
-    <t>performing household chores</t>
-  </si>
-  <si>
-    <t>Gore Vidal</t>
-  </si>
-  <si>
-    <t>writing historical fiction</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Grace Jones</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>conducting illicit affairs</t>
-  </si>
-  <si>
-    <t>Jimmy Stewart</t>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>writing purple prose</t>
+  </si>
+  <si>
+    <t>smoking cigarettes</t>
+  </si>
+  <si>
+    <t>Luis Suarez</t>
+  </si>
+  <si>
+    <t>biting opponents</t>
   </si>
   <si>
     <t>playing everyman characters</t>
-  </si>
-  <si>
-    <t>Harry S. Truman</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Lara Croft</t>
-  </si>
-  <si>
-    <t>unearthing ancient tombs</t>
-  </si>
-  <si>
-    <t>Jim Jones</t>
-  </si>
-  <si>
-    <t>organizing mass suicides</t>
-  </si>
-  <si>
-    <t>Deep Throat</t>
-  </si>
-  <si>
-    <t>talking in riddles</t>
-  </si>
-  <si>
-    <t>Rain Man</t>
-  </si>
-  <si>
-    <t>counting tooth picks</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Don Quixote</t>
-  </si>
-  <si>
-    <t>going on romantic quests</t>
-  </si>
-  <si>
-    <t>Jane Goodall</t>
-  </si>
-  <si>
-    <t>living amongst apes</t>
-  </si>
-  <si>
-    <t>Bernard Madoff</t>
-  </si>
-  <si>
-    <t>running Ponzi schemes</t>
-  </si>
-  <si>
-    <t>JD Salinger</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Judge Joe Dredd</t>
-  </si>
-  <si>
-    <t>punishing criminals</t>
-  </si>
-  <si>
-    <t>Joey Tribbiani</t>
-  </si>
-  <si>
-    <t>acting off-off-Broadway</t>
-  </si>
-  <si>
-    <t>Thomas Pynchon</t>
-  </si>
-  <si>
-    <t>René Descartes</t>
-  </si>
-  <si>
-    <t>teaching philosophy</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Jerry Lee Lewis</t>
-  </si>
-  <si>
-    <t>marrying underage girls</t>
-  </si>
-  <si>
-    <t>pulling pranks</t>
-  </si>
-  <si>
-    <t>Zsa Zsa Gabor</t>
-  </si>
-  <si>
-    <t>collecting alimony</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
-    <t>plagiarizing political speeches</t>
-  </si>
-  <si>
-    <t>Immanuel Kant</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>writing up case notes</t>
-  </si>
-  <si>
-    <t>Tracy Jordan</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>John McEnroe</t>
-  </si>
-  <si>
-    <t>delivering forehand slams</t>
-  </si>
-  <si>
-    <t>Joe DiMaggio</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>Chris Rock</t>
-  </si>
-  <si>
-    <t>Hedda Hopper</t>
-  </si>
-  <si>
-    <t>Richard Branson</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Jeff Koons</t>
-  </si>
-  <si>
-    <t>making kitsch</t>
-  </si>
-  <si>
-    <t>Katharine Hepburn</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>selling tat</t>
-  </si>
-  <si>
-    <t>Richard Dawkins</t>
-  </si>
-  <si>
-    <t>explaining evolution</t>
-  </si>
-  <si>
-    <t>Charles Lindbergh</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>Ron Weasley</t>
-  </si>
-  <si>
-    <t>studying magic</t>
-  </si>
-  <si>
-    <t>Jane Eyre</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>Simone de Beauvoir</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Yosemite Sam</t>
-  </si>
-  <si>
-    <t>losing control</t>
-  </si>
-  <si>
-    <t>Joan Crawford</t>
-  </si>
-  <si>
-    <t>Jim Morrison</t>
-  </si>
-  <si>
-    <t>Niles Crane</t>
-  </si>
-  <si>
-    <t>nurturing sibling rivalry</t>
-  </si>
-  <si>
-    <t>Andrew Lloyd Webber</t>
-  </si>
-  <si>
-    <t>making insipid musicals</t>
-  </si>
-  <si>
-    <t>Oscar Wilde</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>Ozzy Osbourne</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Rachel Green</t>
-  </si>
-  <si>
-    <t>getting a nose job</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Martin Luther King</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Pablo Picasso</t>
-  </si>
-  <si>
-    <t>painting abstract pictures</t>
-  </si>
-  <si>
-    <t>Arthur Dent</t>
-  </si>
-  <si>
-    <t>making sandwiches</t>
-  </si>
-  <si>
-    <t>Ali G</t>
-  </si>
-  <si>
-    <t>posing as a street thug</t>
-  </si>
-  <si>
-    <t>Popeye</t>
-  </si>
-  <si>
-    <t>promoting healthy eating</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Raymond Chandler</t>
-  </si>
-  <si>
-    <t>writing detective fiction</t>
-  </si>
-  <si>
-    <t>Tom Brady</t>
-  </si>
-  <si>
-    <t>signing sports memorabilia</t>
-  </si>
-  <si>
-    <t>Walter Mitty</t>
-  </si>
-  <si>
-    <t>escaping from reality</t>
-  </si>
-  <si>
-    <t>Kellyanne Conway</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>Chandler Bing</t>
-  </si>
-  <si>
-    <t>making sarcastic remarks</t>
-  </si>
-  <si>
-    <t>running pyramid schemes</t>
-  </si>
-  <si>
-    <t>William Randolph Hearst</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>Tiny Tim Cratchit</t>
-  </si>
-  <si>
-    <t>saying grace</t>
-  </si>
-  <si>
-    <t>Iggy Pop</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>Svengali</t>
-  </si>
-  <si>
-    <t>manipulating ingenues</t>
-  </si>
-  <si>
-    <t>Steve Jobs</t>
-  </si>
-  <si>
-    <t>running a hardware company</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>pouting on camera</t>
-  </si>
-  <si>
-    <t>Shirley Temple</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>eating Peking duck</t>
-  </si>
-  <si>
-    <t>Ronald McDonald</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>abusing minorities</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
-  </si>
-  <si>
-    <t>Mickey Rourke</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>General Zod</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Perry Mason</t>
-  </si>
-  <si>
-    <t>defending the innocent</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>launching foreign wars</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>directing weird movies</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>Orson Welles</t>
-  </si>
-  <si>
-    <t>writing Hollywood movies</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>stealing jewels</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>searching for a new world</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>writing weird movies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Jack The Ripper</t>
-  </si>
-  <si>
-    <t>eluding capture</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>seducing women</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1044,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.21875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.19921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1096,48 +1090,48 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1145,21 +1139,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1167,32 +1161,32 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1200,24 +1194,24 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1239,7 +1233,7 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1250,7 +1244,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1261,7 +1255,7 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1272,7 +1266,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1283,7 +1277,7 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1294,7 +1288,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -1316,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1324,76 +1318,76 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1404,7 +1398,7 @@
         <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -1415,7 +1409,7 @@
         <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1426,7 +1420,7 @@
         <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1437,7 +1431,7 @@
         <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1448,48 +1442,48 @@
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -1497,76 +1491,76 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1574,10 +1568,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -1585,46 +1579,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
         <v>96</v>
       </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
         <v>100</v>
       </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
         <v>102</v>
       </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -1635,7 +1629,7 @@
         <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -1646,7 +1640,7 @@
         <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -1679,7 +1673,7 @@
         <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -1687,29 +1681,29 @@
         <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
@@ -1717,46 +1711,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -1764,84 +1758,84 @@
         <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1849,43 +1843,43 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1893,43 +1887,43 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" t="s">
         <v>149</v>
       </c>
-      <c r="B78" t="s">
-        <v>150</v>
-      </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -1937,76 +1931,76 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
         <v>160</v>
       </c>
-      <c r="B85" t="s">
-        <v>161</v>
-      </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
         <v>162</v>
       </c>
-      <c r="B86" t="s">
-        <v>163</v>
-      </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
         <v>164</v>
-      </c>
-      <c r="B87" t="s">
-        <v>165</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2014,21 +2008,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -2036,21 +2030,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -2058,65 +2052,65 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2124,43 +2118,43 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2168,32 +2162,32 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2201,21 +2195,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
@@ -2223,46 +2217,46 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
@@ -2270,7 +2264,7 @@
         <v>204</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2278,10 +2272,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -2289,32 +2283,32 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B114" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2322,21 +2316,21 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B116" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
@@ -2344,21 +2338,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>219</v>
+      </c>
+      <c r="B119" t="s">
         <v>220</v>
-      </c>
-      <c r="B119" t="s">
-        <v>221</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -2366,24 +2360,24 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" t="s">
         <v>222</v>
       </c>
-      <c r="B120" t="s">
-        <v>223</v>
-      </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121" t="s">
         <v>224</v>
       </c>
-      <c r="B121" t="s">
-        <v>60</v>
-      </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
@@ -2394,7 +2388,7 @@
         <v>226</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
@@ -2402,18 +2396,18 @@
         <v>227</v>
       </c>
       <c r="B123" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>228</v>
+      </c>
+      <c r="B124" t="s">
         <v>229</v>
-      </c>
-      <c r="B124" t="s">
-        <v>230</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
@@ -2421,32 +2415,32 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>230</v>
+      </c>
+      <c r="B125" t="s">
         <v>231</v>
       </c>
-      <c r="B125" t="s">
-        <v>232</v>
-      </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>232</v>
+      </c>
+      <c r="B126" t="s">
         <v>233</v>
       </c>
-      <c r="B126" t="s">
-        <v>234</v>
-      </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>234</v>
+      </c>
+      <c r="B127" t="s">
         <v>235</v>
-      </c>
-      <c r="B127" t="s">
-        <v>236</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
@@ -2454,21 +2448,21 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>236</v>
+      </c>
+      <c r="B128" t="s">
         <v>237</v>
       </c>
-      <c r="B128" t="s">
-        <v>238</v>
-      </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>238</v>
+      </c>
+      <c r="B129" t="s">
         <v>239</v>
-      </c>
-      <c r="B129" t="s">
-        <v>60</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
@@ -2479,43 +2473,43 @@
         <v>240</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B131" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B132" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="B133" t="s">
         <v>246</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
@@ -2523,15 +2517,15 @@
         <v>247</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
@@ -2542,10 +2536,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="B136" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
@@ -2553,21 +2547,21 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>98</v>
+        <v>252</v>
       </c>
       <c r="B137" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B138" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2575,32 +2569,32 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B139" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B140" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2608,21 +2602,21 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B143" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2630,21 +2624,21 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B144" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B145" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2652,43 +2646,43 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>266</v>
+        <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B147" t="s">
-        <v>268</v>
+        <v>65</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B148" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2696,54 +2690,54 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B150" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B151" t="s">
-        <v>276</v>
+        <v>118</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="B152" t="s">
         <v>277</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>208</v>
+      </c>
+      <c r="B153" t="s">
         <v>278</v>
       </c>
-      <c r="B153" t="s">
-        <v>279</v>
-      </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>279</v>
+      </c>
+      <c r="B154" t="s">
         <v>280</v>
-      </c>
-      <c r="B154" t="s">
-        <v>281</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2751,65 +2745,65 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>281</v>
+      </c>
+      <c r="B155" t="s">
         <v>282</v>
       </c>
-      <c r="B155" t="s">
-        <v>283</v>
-      </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="B156" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B157" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B158" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B159" t="s">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>290</v>
+      </c>
+      <c r="B160" t="s">
         <v>291</v>
-      </c>
-      <c r="B160" t="s">
-        <v>292</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2817,10 +2811,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>292</v>
+      </c>
+      <c r="B161" t="s">
         <v>293</v>
-      </c>
-      <c r="B161" t="s">
-        <v>294</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2828,13 +2822,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
@@ -2845,7 +2839,7 @@
         <v>296</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164">
@@ -2853,62 +2847,62 @@
         <v>297</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B165" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B166" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B167" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B168" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B169" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>
@@ -2916,120 +2910,120 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B170" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B171" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B172" t="s">
-        <v>313</v>
+        <v>118</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="B173" t="s">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>314</v>
+      </c>
+      <c r="B174" t="s">
         <v>315</v>
       </c>
-      <c r="B174" t="s">
-        <v>316</v>
-      </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>316</v>
+      </c>
+      <c r="B175" t="s">
         <v>317</v>
       </c>
-      <c r="B175" t="s">
-        <v>318</v>
-      </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="B176" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>319</v>
+      </c>
+      <c r="B177" t="s">
         <v>320</v>
       </c>
-      <c r="B177" t="s">
-        <v>60</v>
-      </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B178" t="s">
         <v>321</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="B179" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>322</v>
+      </c>
+      <c r="B180" t="s">
         <v>323</v>
-      </c>
-      <c r="B180" t="s">
-        <v>324</v>
       </c>
       <c r="C180" t="s">
         <v>8</v>
@@ -3037,13 +3031,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="B181" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject120.xlsx
+++ b/StaffProject120.xlsx
@@ -23,82 +23,478 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>John Grisham</t>
-  </si>
-  <si>
-    <t>writing legal fiction</t>
+    <t>Keith Richards</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>making new wave movies</t>
-  </si>
-  <si>
-    <t>Wile E. Coyote</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>Bruce Willis</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Nicolas Sarkozy</t>
-  </si>
-  <si>
-    <t>partying on yachts</t>
-  </si>
-  <si>
-    <t>Walter White</t>
-  </si>
-  <si>
-    <t>cooking chrystal meth</t>
-  </si>
-  <si>
-    <t>Nigel Farage</t>
+    <t>Judy Garland</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>Jerry Maguire</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>Eliza Doolittle</t>
+  </si>
+  <si>
+    <t>handing out flowers</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>Richard Nixon</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Vincent Van Gogh</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>RuPaul</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Tony Blair</t>
+  </si>
+  <si>
+    <t>promoting liberal values</t>
+  </si>
+  <si>
+    <t>Lenny Bruce</t>
+  </si>
+  <si>
+    <t>commenting on social issues</t>
+  </si>
+  <si>
+    <t>Erik "Magneto" Lehnsherr</t>
+  </si>
+  <si>
+    <t>preparing for war</t>
+  </si>
+  <si>
+    <t>Agent Smith</t>
+  </si>
+  <si>
+    <t>fighting the resistance</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>John Calvin</t>
   </si>
   <si>
     <t>promoting conservative values</t>
   </si>
   <si>
-    <t>Jenna Maroney</t>
+    <t>Karl Rove</t>
+  </si>
+  <si>
+    <t>Pope Benedict XVI</t>
+  </si>
+  <si>
+    <t>Conchita Wurst</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>punching out Nazis</t>
+  </si>
+  <si>
+    <t>Rush Limbaugh</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>seducing emperors</t>
+  </si>
+  <si>
+    <t>Dominique Strauss-Kahn</t>
+  </si>
+  <si>
+    <t>throwing sex parties</t>
+  </si>
+  <si>
+    <t>Jeff Bezos</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>Arya Stark</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>Rick Sanchez</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Grace Hopper</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Jeff Sessions</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>writing about sex</t>
+  </si>
+  <si>
+    <t>Juliet Capulet</t>
+  </si>
+  <si>
+    <t>watching the sun rise</t>
+  </si>
+  <si>
+    <t>Liz Lemon</t>
+  </si>
+  <si>
+    <t>writing TV comedies</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>promoting hair products</t>
+  </si>
+  <si>
+    <t>Lando Calrissian</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>Kylie Minogue</t>
   </si>
   <si>
     <t>singing pop songs</t>
   </si>
   <si>
-    <t>Mayor Joe Quimby</t>
-  </si>
-  <si>
-    <t>embezzling tax money</t>
-  </si>
-  <si>
-    <t>Newt Gingrich</t>
-  </si>
-  <si>
-    <t>running for the presidency</t>
-  </si>
-  <si>
-    <t>Madonna</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Judas Iscariot</t>
-  </si>
-  <si>
-    <t>stabbing in the back</t>
-  </si>
-  <si>
-    <t>Sir Hugo Drax</t>
-  </si>
-  <si>
-    <t>striving for world domination</t>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>testing scientific theories</t>
+  </si>
+  <si>
+    <t>John F. Kennedy</t>
+  </si>
+  <si>
+    <t>chasing starlets</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Wayne Rooney</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>Marc Jacobs</t>
+  </si>
+  <si>
+    <t>designing clothes</t>
+  </si>
+  <si>
+    <t>R2D2</t>
+  </si>
+  <si>
+    <t>carrying secret plans</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Megan Fox</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>working for the forces of darkness</t>
+  </si>
+  <si>
+    <t>Jeremy Clarkson</t>
+  </si>
+  <si>
+    <t>insulting minorities</t>
+  </si>
+  <si>
+    <t>Jason Bourne</t>
+  </si>
+  <si>
+    <t>killing people in ingenious ways</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>chasing criminals</t>
+  </si>
+  <si>
+    <t>Rain Man</t>
+  </si>
+  <si>
+    <t>counting tooth picks</t>
+  </si>
+  <si>
+    <t>Lee Marvin</t>
+  </si>
+  <si>
+    <t>Inspector Jacques Clouseau</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Martin Luther King</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>singing to teenagers</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>piloting the Millenium Falcon</t>
+  </si>
+  <si>
+    <t>Grace Jones</t>
+  </si>
+  <si>
+    <t>Kellyanne Conway</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>Timothy McGee</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>Spartacus</t>
+  </si>
+  <si>
+    <t>leading revolts</t>
+  </si>
+  <si>
+    <t>Virginia Woolf</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Thomas Edison</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>Bruce Banner</t>
+  </si>
+  <si>
+    <t>flying into a rage</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Jack Donaghy</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>Steve Guttenberg</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>Hunter S. Thompson</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>Sylvester Stallone</t>
+  </si>
+  <si>
+    <t>Steve Bannon</t>
+  </si>
+  <si>
+    <t>Tony Soprano</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Shirley Temple</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>bodybuilding</t>
+  </si>
+  <si>
+    <t>Saul Goodman</t>
+  </si>
+  <si>
+    <t>representing criminals</t>
+  </si>
+  <si>
+    <t>smuggling contraband</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>singing experimental songs</t>
+  </si>
+  <si>
+    <t>Marco Polo</t>
+  </si>
+  <si>
+    <t>exploring foreign countries</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>John Dillinger</t>
+  </si>
+  <si>
+    <t>robbing banks</t>
+  </si>
+  <si>
+    <t>Kim Kardashian</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>campaigning for world peace</t>
   </si>
   <si>
     <t>Tom Jones</t>
@@ -107,10 +503,229 @@
     <t>recording pop songs</t>
   </si>
   <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>building giant walls</t>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>Karl Marx</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Joseph Smith</t>
+  </si>
+  <si>
+    <t>recruiting dissidents</t>
+  </si>
+  <si>
+    <t>Naomi Campbell</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>opening new markets</t>
+  </si>
+  <si>
+    <t>Lindsay Lohan</t>
+  </si>
+  <si>
+    <t>driving under the influence</t>
+  </si>
+  <si>
+    <t>Jimmy Carter</t>
+  </si>
+  <si>
+    <t>building houses for poor people</t>
+  </si>
+  <si>
+    <t>Benito Mussolini</t>
+  </si>
+  <si>
+    <t>making trains run on time</t>
+  </si>
+  <si>
+    <t>Linus Torvalds</t>
+  </si>
+  <si>
+    <t>developing operating systems</t>
+  </si>
+  <si>
+    <t>Daphne Moon</t>
+  </si>
+  <si>
+    <t>performing physical therapy</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>pulling dirty political tricks</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
+  </si>
+  <si>
+    <t>Oscar Wilde</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>frying crabby patties</t>
+  </si>
+  <si>
+    <t>promoting Fascism</t>
+  </si>
+  <si>
+    <t>Edna Krabappel</t>
+  </si>
+  <si>
+    <t>looking for love</t>
+  </si>
+  <si>
+    <t>Don Draper</t>
+  </si>
+  <si>
+    <t>developing advertising campaigns</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Pac Man</t>
+  </si>
+  <si>
+    <t>eluding electronic ghosts</t>
+  </si>
+  <si>
+    <t>Norman Bates</t>
+  </si>
+  <si>
+    <t>Bette Midler</t>
+  </si>
+  <si>
+    <t>Pyotr Ilyich Tchaikovsky</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Jeff "Comic Book Guy" Albertson</t>
+  </si>
+  <si>
+    <t>spouting movie trivia</t>
+  </si>
+  <si>
+    <t>Louis Pasteur</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>preaching to presidents</t>
+  </si>
+  <si>
+    <t>Commander Data</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>Angela Merkel</t>
+  </si>
+  <si>
+    <t>plotting election strategies</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>convicting criminals</t>
+  </si>
+  <si>
+    <t>Michael O'Leary</t>
+  </si>
+  <si>
+    <t>promoting air travel</t>
+  </si>
+  <si>
+    <t>C-3PO</t>
+  </si>
+  <si>
+    <t>complaining about everything</t>
+  </si>
+  <si>
+    <t>Lee Harvey Oswald</t>
+  </si>
+  <si>
+    <t>assassinating presidents</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>preventing terrorism</t>
+  </si>
+  <si>
+    <t>Kevin Smith</t>
+  </si>
+  <si>
+    <t>podcasting about movies</t>
+  </si>
+  <si>
+    <t>Steve Ballmer</t>
+  </si>
+  <si>
+    <t>running a technology company</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Bob Cratchit</t>
+  </si>
+  <si>
+    <t>writing in ledgers</t>
+  </si>
+  <si>
+    <t>Dr. Henry Jekyll</t>
+  </si>
+  <si>
+    <t>suppressing violent urges</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>running a media empire</t>
   </si>
   <si>
     <t>Adam Smith</t>
@@ -119,871 +734,256 @@
     <t>promoting capitalism</t>
   </si>
   <si>
-    <t>Nikola Tesla</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>playing rock guitar</t>
-  </si>
-  <si>
-    <t>Selma Bouvier</t>
-  </si>
-  <si>
-    <t>clipping coupons</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Marlene Dietrich</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Carl Von Clausewitz</t>
+    <t>Natasha Romanova</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Edmund Blackadder</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>René Descartes</t>
+  </si>
+  <si>
+    <t>teaching philosophy</t>
+  </si>
+  <si>
+    <t>Leonardo Da Vinci</t>
+  </si>
+  <si>
+    <t>painting realistic pictures</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>escaping from water tanks</t>
+  </si>
+  <si>
+    <t>Frasier Crane</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Judge Joe Dredd</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>chasing flappers</t>
+  </si>
+  <si>
+    <t>Barney Gumble</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>smoking herb</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>Joan Crawford</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>killing murderers</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Rudy Giuliani</t>
+  </si>
+  <si>
+    <t>running a large metropolitan city</t>
+  </si>
+  <si>
+    <t>Cinderella</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Napoleon Bonaparte</t>
   </si>
   <si>
     <t>developing military strategies</t>
   </si>
   <si>
+    <t>Victor Meldrew</t>
+  </si>
+  <si>
+    <t>Conan the Barbarian</t>
+  </si>
+  <si>
+    <t>Paul McCartney</t>
+  </si>
+  <si>
+    <t>Nancy Drew</t>
+  </si>
+  <si>
+    <t>William the Conqueror</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Jesse Pinkman</t>
+  </si>
+  <si>
+    <t>running a criminal empire</t>
+  </si>
+  <si>
+    <t>Raymond Chandler</t>
+  </si>
+  <si>
+    <t>Wernher von Braun</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>winning Michelin stars</t>
+  </si>
+  <si>
+    <t>Sylvia Plath</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>Katniss Everdeen</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>Jor El</t>
+  </si>
+  <si>
+    <t>inventing new technologies</t>
+  </si>
+  <si>
     <t>George Michael</t>
   </si>
   <si>
-    <t>Tom Brady</t>
-  </si>
-  <si>
-    <t>signing sports memorabilia</t>
-  </si>
-  <si>
-    <t>J. Edgar Hoover</t>
-  </si>
-  <si>
-    <t>running the FBI</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Jimmy Cagney</t>
-  </si>
-  <si>
-    <t>playing tough guys</t>
-  </si>
-  <si>
-    <t>Robert De Niro</t>
-  </si>
-  <si>
-    <t>Edward Scissorhands</t>
-  </si>
-  <si>
-    <t>making topiary sculptures</t>
-  </si>
-  <si>
-    <t>Boudicca</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
+    <t>Alexander Fleming</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>painting dark pictures</t>
+  </si>
+  <si>
+    <t>Bob Woodward</t>
+  </si>
+  <si>
+    <t>following the money</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>falling gracefully</t>
   </si>
   <si>
     <t>offering medical opinions</t>
   </si>
   <si>
-    <t>Ronald Reagan</t>
-  </si>
-  <si>
-    <t>Joaquin Phoenix</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>Elton John</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>Grace Jones</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Jack The Ripper</t>
-  </si>
-  <si>
-    <t>eluding capture</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>writing blues songs</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t>writing sonnets</t>
-  </si>
-  <si>
-    <t>J.R.R. Tolkein</t>
+    <t>Chelsea Manning</t>
+  </si>
+  <si>
+    <t>leaking classified documents</t>
+  </si>
+  <si>
+    <t>Peter Jackson</t>
   </si>
   <si>
     <t>making fantasy movies</t>
   </si>
   <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>directing weird movies</t>
-  </si>
-  <si>
-    <t>Jean-Paul Sartre</t>
-  </si>
-  <si>
-    <t>smoking Boyard cigarettes</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>enjoying ball-room dancing</t>
-  </si>
-  <si>
-    <t>James Cook</t>
-  </si>
-  <si>
-    <t>exploring foreign countries</t>
-  </si>
-  <si>
-    <t>Roseanne Barr</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>Michelle Obama</t>
-  </si>
-  <si>
-    <t>promoting feminism</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>knocking out opponents</t>
-  </si>
-  <si>
-    <t>Michael O'Leary</t>
-  </si>
-  <si>
-    <t>running a budget airline</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>writing crime stories</t>
-  </si>
-  <si>
-    <t>Eleanor Roosevelt</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Gore Vidal</t>
-  </si>
-  <si>
-    <t>writing historical fiction</t>
-  </si>
-  <si>
-    <t>Larry David</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>making ice sculptures</t>
-  </si>
-  <si>
-    <t>Sideshow Bob</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>Vladimir Putin</t>
-  </si>
-  <si>
-    <t>bullying neighboring countries</t>
-  </si>
-  <si>
-    <t>Karen Carpenter</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>hunting wabbits</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>Modesty Blaise</t>
-  </si>
-  <si>
-    <t>pulling capers</t>
-  </si>
-  <si>
-    <t>Judge Judy Sheindlin</t>
-  </si>
-  <si>
-    <t>delivering judgments</t>
-  </si>
-  <si>
-    <t>Niles Crane</t>
-  </si>
-  <si>
-    <t>nurturing sibling rivalry</t>
-  </si>
-  <si>
-    <t>Saga Norén</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>G. Gordon Liddy</t>
-  </si>
-  <si>
-    <t>Elon Musk</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>John Merrick</t>
-  </si>
-  <si>
-    <t>working in a freak show</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>abusing power</t>
-  </si>
-  <si>
-    <t>Adolf Hitler</t>
-  </si>
-  <si>
-    <t>creating an axis of evil</t>
-  </si>
-  <si>
-    <t>John Maynard Keynes</t>
-  </si>
-  <si>
-    <t>promoting monetarism</t>
-  </si>
-  <si>
-    <t>Gordon Gekko</t>
-  </si>
-  <si>
-    <t>making money</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Jerry Lee Lewis</t>
-  </si>
-  <si>
-    <t>playing rock piano</t>
-  </si>
-  <si>
-    <t>Green Lantern</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>studying symbols</t>
-  </si>
-  <si>
-    <t>Judy Garland</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>singing reggae songs</t>
-  </si>
-  <si>
-    <t>Kellyanne Conway</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>Nick Fury</t>
-  </si>
-  <si>
-    <t>running a clandestine spy organization</t>
-  </si>
-  <si>
-    <t>Princess Fiona</t>
-  </si>
-  <si>
-    <t>waiting for a hero</t>
-  </si>
-  <si>
-    <t>Pyotr Ilyich Tchaikovsky</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>Robert Downey Jr.</t>
-  </si>
-  <si>
-    <t>making movies</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>promoting big business</t>
-  </si>
-  <si>
-    <t>Voltaire</t>
-  </si>
-  <si>
-    <t>promoting liberal values</t>
+    <t>Fox Mulder</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>making escape plans</t>
   </si>
   <si>
     <t>Mr. Spock</t>
   </si>
   <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>Bjork</t>
-  </si>
-  <si>
-    <t>Wolverine</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Larry Flynt</t>
-  </si>
-  <si>
-    <t>running gentleman's clubs</t>
-  </si>
-  <si>
-    <t>Chandler Bing</t>
-  </si>
-  <si>
-    <t>making sarcastic remarks</t>
-  </si>
-  <si>
-    <t>Joe Louis</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles</t>
-  </si>
-  <si>
-    <t>Rain Man</t>
-  </si>
-  <si>
-    <t>counting cards</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>stealing jewels</t>
-  </si>
-  <si>
-    <t>Liza Minnelli</t>
-  </si>
-  <si>
-    <t>Jerry Springer</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>Dr. Eldon Tyrell</t>
-  </si>
-  <si>
-    <t>building replicants</t>
-  </si>
-  <si>
-    <t>Mickey Rourke</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>Jenna Jameson</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>Sam Spade</t>
-  </si>
-  <si>
-    <t>Inspector Gadget</t>
-  </si>
-  <si>
-    <t>using gadgets</t>
-  </si>
-  <si>
-    <t>Monica Geller</t>
-  </si>
-  <si>
-    <t>cooking for friends</t>
-  </si>
-  <si>
-    <t>Arthur Dent</t>
-  </si>
-  <si>
-    <t>drinking tea</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>John Travolta</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>telling affable jokes</t>
-  </si>
-  <si>
-    <t>Paris Hilton</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>recording history</t>
-  </si>
-  <si>
-    <t>Lizzy Bennet</t>
-  </si>
-  <si>
-    <t>disappointing suitors</t>
-  </si>
-  <si>
-    <t>Alan Partridge</t>
-  </si>
-  <si>
-    <t>hosting radio shows</t>
-  </si>
-  <si>
-    <t>Joseph Smith</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>Lord Macbeth</t>
-  </si>
-  <si>
-    <t>grabbing power</t>
-  </si>
-  <si>
-    <t>Conchita Wurst</t>
-  </si>
-  <si>
-    <t>Reince Priebus</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>selling tat</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>talking up the economy</t>
-  </si>
-  <si>
-    <t>Hedda Hopper</t>
-  </si>
-  <si>
-    <t>Jerry Seinfeld</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>Lisa Simpson</t>
-  </si>
-  <si>
-    <t>over-achieving at school</t>
-  </si>
-  <si>
-    <t>Steve Jobs</t>
-  </si>
-  <si>
-    <t>running a hardware company</t>
-  </si>
-  <si>
-    <t>Kim Jong-Il</t>
-  </si>
-  <si>
-    <t>issuing threats</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>Lou Reed</t>
-  </si>
-  <si>
-    <t>P. T. Barnum</t>
-  </si>
-  <si>
-    <t>piquing public interest</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Victor Frankenstein</t>
-  </si>
-  <si>
-    <t>playing God</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Lt. George Colthurst St Barleigh</t>
-  </si>
-  <si>
-    <t>Tom Wolfe</t>
-  </si>
-  <si>
-    <t>writing about social problems</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>Johnny Depp</t>
-  </si>
-  <si>
-    <t>Daenerys Targaryen</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>working out</t>
-  </si>
-  <si>
-    <t>Uriah Heap</t>
-  </si>
-  <si>
-    <t>practicing insincerity</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Olive Oyl</t>
-  </si>
-  <si>
-    <t>doing the Charleston</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Leonardo DiCaprio</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>rescuing kids</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>playing grungy music</t>
-  </si>
-  <si>
-    <t>Vladimir Lenin</t>
-  </si>
-  <si>
-    <t>arguing against capitalism</t>
-  </si>
-  <si>
-    <t>Lisbeth Salander</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>Jeff "Comic Book Guy" Albertson</t>
-  </si>
-  <si>
-    <t>being condescending to customers</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>living amongst apes</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Julia Child</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>singing protest songs</t>
-  </si>
-  <si>
-    <t>popping amphetamines</t>
-  </si>
-  <si>
-    <t>Harry S. Truman</t>
-  </si>
-  <si>
-    <t>Jonathan Swift</t>
-  </si>
-  <si>
-    <t>writing political satires</t>
-  </si>
-  <si>
-    <t>trimming bushes</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>Kevin Bacon</t>
-  </si>
-  <si>
-    <t>forming new social connections</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Eric Cartman</t>
-  </si>
-  <si>
-    <t>making racist jibes</t>
-  </si>
-  <si>
-    <t>Oscar Wilde</t>
-  </si>
-  <si>
-    <t>coining sparkling witticisms</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Catherine The Great</t>
-  </si>
-  <si>
-    <t>Pete Sampras</t>
-  </si>
-  <si>
-    <t>winning tennis matches</t>
-  </si>
-  <si>
-    <t>Gandalf the Grey</t>
-  </si>
-  <si>
-    <t>blowing smoke rings</t>
-  </si>
-  <si>
-    <t>Chief Clarence Wiggum</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>spitting while speaking</t>
-  </si>
-  <si>
-    <t>Jim Carrey</t>
-  </si>
-  <si>
-    <t>gurning for the camera</t>
-  </si>
-  <si>
-    <t>Popeye</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>chasing after women</t>
-  </si>
-  <si>
-    <t>Rush Limbaugh</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>John Lennon</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>Marty McFly</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>Sergey Brin</t>
-  </si>
-  <si>
-    <t>running a tech giant</t>
-  </si>
-  <si>
-    <t>spouting movie trivia</t>
-  </si>
-  <si>
-    <t>Martin Luther</t>
-  </si>
-  <si>
-    <t>recruiting dissidents</t>
+    <t>Ned Flanders</t>
+  </si>
+  <si>
+    <t>being a good neighbor</t>
+  </si>
+  <si>
+    <t>Obi-wan Kenobi</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Larry Page</t>
+  </si>
+  <si>
+    <t>building a search engine</t>
+  </si>
+  <si>
+    <t>Barbie</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="30.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.9609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1076,18 +1076,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1098,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1109,7 +1109,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1120,81 +1120,81 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1202,21 +1202,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1224,76 +1224,76 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1304,10 +1304,10 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1318,7 +1318,7 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1326,7 +1326,7 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1334,35 +1334,35 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1373,7 +1373,7 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1384,7 +1384,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1395,7 +1395,7 @@
         <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1403,32 +1403,32 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1439,7 +1439,7 @@
         <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -1450,7 +1450,7 @@
         <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -1461,7 +1461,7 @@
         <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -1472,7 +1472,7 @@
         <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1483,7 +1483,7 @@
         <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1494,7 +1494,7 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1505,7 +1505,7 @@
         <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -1535,73 +1535,73 @@
         <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1615,7 +1615,7 @@
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -1626,106 +1626,106 @@
         <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -1736,7 +1736,7 @@
         <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -1744,109 +1744,109 @@
         <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -1854,40 +1854,40 @@
         <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" t="s">
         <v>143</v>
       </c>
-      <c r="B75" t="s">
-        <v>144</v>
-      </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1895,98 +1895,98 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1994,21 +1994,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2016,21 +2016,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2038,54 +2038,54 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2093,186 +2093,186 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B108" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B111" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B112" t="s">
-        <v>209</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2280,142 +2280,142 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B119" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B121" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B122" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B123" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B125" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2423,54 +2423,54 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B126" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B127" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B128" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B130" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2478,43 +2478,43 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C131" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="C132" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" t="s">
         <v>243</v>
       </c>
-      <c r="B133" t="s">
-        <v>244</v>
-      </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>244</v>
+      </c>
+      <c r="B134" t="s">
         <v>245</v>
-      </c>
-      <c r="B134" t="s">
-        <v>246</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2522,24 +2522,24 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" t="s">
         <v>247</v>
       </c>
-      <c r="B135" t="s">
-        <v>248</v>
-      </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" t="s">
         <v>249</v>
       </c>
-      <c r="B136" t="s">
-        <v>136</v>
-      </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
@@ -2547,54 +2547,54 @@
         <v>250</v>
       </c>
       <c r="B137" t="s">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>251</v>
+      </c>
+      <c r="B138" t="s">
         <v>252</v>
       </c>
-      <c r="B138" t="s">
-        <v>253</v>
-      </c>
       <c r="C138" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" t="s">
         <v>254</v>
       </c>
-      <c r="B139" t="s">
-        <v>44</v>
-      </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="B140" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B141" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142">
@@ -2605,59 +2605,59 @@
         <v>259</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>110</v>
+      </c>
+      <c r="B143" t="s">
         <v>260</v>
       </c>
-      <c r="B143" t="s">
-        <v>261</v>
-      </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>261</v>
+      </c>
+      <c r="B144" t="s">
         <v>262</v>
       </c>
-      <c r="B144" t="s">
-        <v>263</v>
-      </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>263</v>
+      </c>
+      <c r="B145" t="s">
         <v>264</v>
       </c>
-      <c r="B145" t="s">
-        <v>265</v>
-      </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>265</v>
+      </c>
+      <c r="B146" t="s">
         <v>266</v>
       </c>
-      <c r="B146" t="s">
-        <v>267</v>
-      </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B147" t="s">
-        <v>269</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2665,57 +2665,57 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B148" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B149" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B150" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="B151" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>276</v>
+      </c>
+      <c r="B152" t="s">
         <v>277</v>
       </c>
-      <c r="B152" t="s">
-        <v>271</v>
-      </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153">
@@ -2723,95 +2723,95 @@
         <v>278</v>
       </c>
       <c r="B153" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="B154" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B155" t="s">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B156" t="s">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B158" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>286</v>
+      </c>
+      <c r="B159" t="s">
         <v>287</v>
       </c>
-      <c r="B159" t="s">
-        <v>288</v>
-      </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B160" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2822,76 +2822,76 @@
         <v>291</v>
       </c>
       <c r="B162" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B163" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B164" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B165" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B166" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B167" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>301</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
@@ -2902,15 +2902,15 @@
         <v>303</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>65</v>
+        <v>304</v>
       </c>
       <c r="B170" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -2918,79 +2918,79 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B171" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>306</v>
+        <v>106</v>
       </c>
       <c r="B172" t="s">
-        <v>167</v>
+        <v>308</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B173" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B174" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B175" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B176" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B177" t="s">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178">
@@ -3001,7 +3001,7 @@
         <v>318</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179">
@@ -3012,29 +3012,29 @@
         <v>320</v>
       </c>
       <c r="C179" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>264</v>
+        <v>321</v>
       </c>
       <c r="B180" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B181" t="s">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="C181" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject120.xlsx
+++ b/StaffProject120.xlsx
@@ -23,319 +23,952 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Keith Richards</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
+    <t>Jesse Jackson</t>
+  </si>
+  <si>
+    <t>suing large corporations</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Ray Charles</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Clark Gable</t>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>writing beat fiction</t>
+  </si>
+  <si>
+    <t>Victor Frankenstein</t>
+  </si>
+  <si>
+    <t>creating monsters</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Miss Jane Marple</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>James Brown</t>
+  </si>
+  <si>
+    <t>singing blues songs</t>
+  </si>
+  <si>
+    <t>Liz Lemon</t>
+  </si>
+  <si>
+    <t>writing TV comedies</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>preaching to presidents</t>
+  </si>
+  <si>
+    <t>Piers Morgan</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>running a school for gifted teens</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Stormy Daniels</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies</t>
+  </si>
+  <si>
+    <t>Leon Trotsky</t>
+  </si>
+  <si>
+    <t>spreading revolution</t>
+  </si>
+  <si>
+    <t>Harvey Milk</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>telling epic tales</t>
+  </si>
+  <si>
+    <t>Lee Harvey Oswald</t>
+  </si>
+  <si>
+    <t>assassinating presidents</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Pope Francis</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>Melania Trump</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Lord Percy Percy</t>
+  </si>
+  <si>
+    <t>flaunting foppish fashions</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>making billions</t>
+  </si>
+  <si>
+    <t>Whitney Houston</t>
+  </si>
+  <si>
+    <t>Kenny G</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>William Shatner</t>
+  </si>
+  <si>
+    <t>starring in TV shows</t>
+  </si>
+  <si>
+    <t>Johannes Gutenberg</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Professor Charles Xavier</t>
+  </si>
+  <si>
+    <t>teaching the next generation</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>Luciano Pavarotti</t>
+  </si>
+  <si>
+    <t>singing opera arias</t>
+  </si>
+  <si>
+    <t>Eleanor Roosevelt</t>
+  </si>
+  <si>
+    <t>Walt Whitman</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>Chris Rock</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>telling dry jokes</t>
+  </si>
+  <si>
+    <t>Scipio Africanus</t>
+  </si>
+  <si>
+    <t>winning battles</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Larry Page</t>
+  </si>
+  <si>
+    <t>running a tech giant</t>
+  </si>
+  <si>
+    <t>King Henry VIII</t>
+  </si>
+  <si>
+    <t>trading in wives</t>
+  </si>
+  <si>
+    <t>Rick Sanchez</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Cher</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Samuel Pepys</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>brokering peace deals</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>Jerry Maguire</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>fighting civil wars</t>
+  </si>
+  <si>
+    <t>Wilson "Kingpin" Fisk</t>
+  </si>
+  <si>
+    <t>grabbing power</t>
+  </si>
+  <si>
+    <t>John Merrick</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>Selma Bouvier</t>
+  </si>
+  <si>
+    <t>clipping coupons</t>
+  </si>
+  <si>
+    <t>Kim Jung-un</t>
+  </si>
+  <si>
+    <t>enriching uranium</t>
+  </si>
+  <si>
+    <t>Jackson Pollock</t>
+  </si>
+  <si>
+    <t>dripping paint onto canvas</t>
+  </si>
+  <si>
+    <t>Kevin Smith</t>
+  </si>
+  <si>
+    <t>selling comic books</t>
+  </si>
+  <si>
+    <t>Agent Smith</t>
+  </si>
+  <si>
+    <t>fighting the resistance</t>
+  </si>
+  <si>
+    <t>Dr. Henry Jekyll</t>
+  </si>
+  <si>
+    <t>suppressing violent urges</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>Yosemite Sam</t>
+  </si>
+  <si>
+    <t>losing control</t>
+  </si>
+  <si>
+    <t>Malcolm X</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>The Artful Dodger</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>winning Michelin stars</t>
+  </si>
+  <si>
+    <t>Kobe Bryant</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>Coco Chanel</t>
+  </si>
+  <si>
+    <t>selling perfumes</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>planting daffodils</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
   </si>
   <si>
     <t>starring in Hollywood movies</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>gossiping with galpals</t>
+  </si>
+  <si>
+    <t>Seth MacFarlane</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>Tracy Jordan</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Oscar Pistorius</t>
+  </si>
+  <si>
+    <t>competing in the Olympics</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>writing experimental songs</t>
+  </si>
+  <si>
+    <t>Winona Ryder</t>
+  </si>
+  <si>
+    <t>Saga Norén</t>
+  </si>
+  <si>
+    <t>Mister Magoo</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>writing epic poetry</t>
+  </si>
+  <si>
+    <t>Tom Ripley</t>
+  </si>
+  <si>
+    <t>forging art</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>plotting strategies</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>Deep Throat</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>Frank Underwood</t>
+  </si>
+  <si>
+    <t>manipulating political pawns</t>
+  </si>
+  <si>
+    <t>Tarzan</t>
+  </si>
+  <si>
+    <t>living amongst apes</t>
+  </si>
+  <si>
+    <t>turning it up to 11</t>
+  </si>
+  <si>
+    <t>playing God</t>
+  </si>
+  <si>
+    <t>Santa Claus</t>
+  </si>
+  <si>
+    <t>climbing down chimneys</t>
+  </si>
+  <si>
+    <t>Michael Phelps</t>
+  </si>
+  <si>
+    <t>winning swimming competitions</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>arresting bootleggers</t>
+  </si>
+  <si>
+    <t>El Chappo</t>
+  </si>
+  <si>
+    <t>Jean-Luc Picard</t>
+  </si>
+  <si>
+    <t>making strategic decisions</t>
+  </si>
+  <si>
+    <t>Doctor Stephen Strange</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>Robert Redford</t>
+  </si>
+  <si>
+    <t>running film festivals</t>
+  </si>
+  <si>
+    <t>Oedipus Rex</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Kevin Spacey</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Lionel Hutz</t>
+  </si>
+  <si>
+    <t>losing court cases</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>running theme parks</t>
+  </si>
+  <si>
+    <t>Michael J. Fox</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>Morpheus</t>
+  </si>
+  <si>
+    <t>searching for the messiah</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>Neil Armstrong</t>
+  </si>
+  <si>
+    <t>collecting rock samples</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>Weird Al Yankovic</t>
+  </si>
+  <si>
+    <t>singing parody songs</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
+  </si>
+  <si>
+    <t>Rocky Balboa</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>Hellboy</t>
+  </si>
+  <si>
+    <t>battling the forces of darkness</t>
+  </si>
+  <si>
+    <t>Samuel Johnson</t>
+  </si>
+  <si>
+    <t>creating dictionaries</t>
+  </si>
+  <si>
+    <t>Wesley Crusher</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>Groundskeeper Willie MacDougal</t>
+  </si>
+  <si>
+    <t>cleaning floors</t>
+  </si>
+  <si>
+    <t>Tess Durbeyfield</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Barney Stinson</t>
+  </si>
+  <si>
+    <t>seducing women</t>
+  </si>
+  <si>
+    <t>Iggy Pop</t>
+  </si>
+  <si>
+    <t>doing raunchy stage acts</t>
+  </si>
+  <si>
+    <t>Mary Poppins</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>Charlie Harper</t>
+  </si>
+  <si>
+    <t>seducing young women</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Inspector Endeavour Morse</t>
+  </si>
+  <si>
+    <t>John Wayne</t>
+  </si>
+  <si>
+    <t>walking like a man</t>
+  </si>
+  <si>
+    <t>Dr. Greg House</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>Paul McCartney</t>
+  </si>
+  <si>
+    <t>Carl Von Clausewitz</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>abusing power</t>
+  </si>
+  <si>
+    <t>Staff Member</t>
+  </si>
+  <si>
+    <t>Lenny Bruce</t>
+  </si>
+  <si>
+    <t>Boudicca</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo</t>
+  </si>
+  <si>
+    <t>Wyatt Earp</t>
+  </si>
+  <si>
+    <t>running a frontier town</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>setting mousetraps</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Mel Brooks</t>
+  </si>
+  <si>
+    <t>writing funny movies</t>
+  </si>
+  <si>
+    <t>directing the business of state</t>
+  </si>
+  <si>
+    <t>Sigmund Freud</t>
+  </si>
+  <si>
+    <t>analyzing the sub-conscious</t>
+  </si>
+  <si>
+    <t>Rush Limbaugh</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>Monica Geller</t>
+  </si>
+  <si>
+    <t>fussing about cleanliness</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>pursuing criminals</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Kellyanne Conway</t>
+  </si>
+  <si>
+    <t>directing animated films</t>
+  </si>
+  <si>
+    <t>Simon Cowell</t>
+  </si>
+  <si>
+    <t>promoting pop music</t>
+  </si>
+  <si>
+    <t>Sarah Connor</t>
+  </si>
+  <si>
+    <t>preparing for the apocalypse</t>
+  </si>
+  <si>
+    <t>Baron Munchausen</t>
+  </si>
+  <si>
+    <t>telling tall tales</t>
+  </si>
+  <si>
+    <t>Svengali</t>
+  </si>
+  <si>
+    <t>manipulating ingenues</t>
+  </si>
+  <si>
+    <t>Le Chiffre</t>
+  </si>
+  <si>
+    <t>cheating at poker</t>
+  </si>
+  <si>
+    <t>Richard Branson</t>
+  </si>
+  <si>
+    <t>selling airline seats</t>
+  </si>
+  <si>
+    <t>Derek Zoolander</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>Sean Connery</t>
+  </si>
+  <si>
+    <t>playing James Bond</t>
+  </si>
+  <si>
+    <t>Ivanka Trump</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>fighting with the mob</t>
+  </si>
+  <si>
+    <t>Rocket Raccoon</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>John Constantine</t>
+  </si>
+  <si>
+    <t>exorcising demons</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>Tom Waits</t>
+  </si>
+  <si>
+    <t>Ayatollah Khomeini</t>
+  </si>
+  <si>
+    <t>issuing fatwas</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>Martin Luther King</t>
+  </si>
+  <si>
+    <t>promoting racial harmony</t>
+  </si>
+  <si>
+    <t>Jesus Christ</t>
+  </si>
+  <si>
+    <t>preaching tolerance</t>
+  </si>
+  <si>
+    <t>Johann Sebastian Bach</t>
+  </si>
+  <si>
+    <t>playing the organ</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
   </si>
   <si>
     <t>moaning about men</t>
   </si>
   <si>
-    <t>Bruce Willis</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>Tina Fey</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Judy Garland</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Jerry Maguire</t>
-  </si>
-  <si>
-    <t>promoting greed</t>
-  </si>
-  <si>
-    <t>Eliza Doolittle</t>
-  </si>
-  <si>
-    <t>handing out flowers</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Richard Nixon</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Vincent Van Gogh</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>RuPaul</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Tony Blair</t>
-  </si>
-  <si>
-    <t>promoting liberal values</t>
-  </si>
-  <si>
-    <t>Lenny Bruce</t>
-  </si>
-  <si>
-    <t>commenting on social issues</t>
-  </si>
-  <si>
-    <t>Erik "Magneto" Lehnsherr</t>
-  </si>
-  <si>
-    <t>preparing for war</t>
-  </si>
-  <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>John Calvin</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Karl Rove</t>
-  </si>
-  <si>
-    <t>Pope Benedict XVI</t>
-  </si>
-  <si>
-    <t>Conchita Wurst</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>punching out Nazis</t>
-  </si>
-  <si>
-    <t>Rush Limbaugh</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>studying magic tricks</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>seducing emperors</t>
-  </si>
-  <si>
-    <t>Dominique Strauss-Kahn</t>
-  </si>
-  <si>
-    <t>throwing sex parties</t>
-  </si>
-  <si>
-    <t>Jeff Bezos</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>Arya Stark</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>Rick Sanchez</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Grace Hopper</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Jeff Sessions</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>writing about sex</t>
-  </si>
-  <si>
-    <t>Juliet Capulet</t>
-  </si>
-  <si>
-    <t>watching the sun rise</t>
-  </si>
-  <si>
-    <t>Liz Lemon</t>
-  </si>
-  <si>
-    <t>writing TV comedies</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Wolfgang Amadeus Mozart</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>promoting hair products</t>
-  </si>
-  <si>
-    <t>Lando Calrissian</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Kylie Minogue</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>testing scientific theories</t>
-  </si>
-  <si>
-    <t>John F. Kennedy</t>
-  </si>
-  <si>
-    <t>chasing starlets</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Wayne Rooney</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>Marc Jacobs</t>
-  </si>
-  <si>
-    <t>designing clothes</t>
-  </si>
-  <si>
-    <t>R2D2</t>
-  </si>
-  <si>
-    <t>carrying secret plans</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Megan Fox</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>working for the forces of darkness</t>
-  </si>
-  <si>
-    <t>Jeremy Clarkson</t>
-  </si>
-  <si>
-    <t>insulting minorities</t>
-  </si>
-  <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>killing people in ingenious ways</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>chasing criminals</t>
+    <t>Romeo Montague</t>
+  </si>
+  <si>
+    <t>falling in love</t>
+  </si>
+  <si>
+    <t>Mad Max Rockatansky</t>
+  </si>
+  <si>
+    <t>avenging loved ones</t>
   </si>
   <si>
     <t>Rain Man</t>
@@ -344,646 +977,13 @@
     <t>counting tooth picks</t>
   </si>
   <si>
-    <t>Lee Marvin</t>
-  </si>
-  <si>
-    <t>Inspector Jacques Clouseau</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>Martin Luther King</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon</t>
-  </si>
-  <si>
-    <t>Grace Jones</t>
-  </si>
-  <si>
-    <t>Kellyanne Conway</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>Timothy McGee</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>Spartacus</t>
-  </si>
-  <si>
-    <t>leading revolts</t>
-  </si>
-  <si>
-    <t>Virginia Woolf</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Thomas Edison</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>Bruce Banner</t>
-  </si>
-  <si>
-    <t>flying into a rage</t>
-  </si>
-  <si>
-    <t>Stevie Wonder</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Jack Donaghy</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>Steve Guttenberg</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Sylvester Stallone</t>
-  </si>
-  <si>
-    <t>Steve Bannon</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Shirley Temple</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>bodybuilding</t>
-  </si>
-  <si>
-    <t>Saul Goodman</t>
-  </si>
-  <si>
-    <t>representing criminals</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>singing experimental songs</t>
-  </si>
-  <si>
     <t>Marco Polo</t>
   </si>
   <si>
     <t>exploring foreign countries</t>
   </si>
   <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>John Dillinger</t>
-  </si>
-  <si>
-    <t>robbing banks</t>
-  </si>
-  <si>
-    <t>Kim Kardashian</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>John Lennon</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>Tom Jones</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>Karl Marx</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>Joseph Smith</t>
-  </si>
-  <si>
-    <t>recruiting dissidents</t>
-  </si>
-  <si>
-    <t>Naomi Campbell</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>opening new markets</t>
-  </si>
-  <si>
-    <t>Lindsay Lohan</t>
-  </si>
-  <si>
-    <t>driving under the influence</t>
-  </si>
-  <si>
-    <t>Jimmy Carter</t>
-  </si>
-  <si>
-    <t>building houses for poor people</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>making trains run on time</t>
-  </si>
-  <si>
-    <t>Linus Torvalds</t>
-  </si>
-  <si>
-    <t>developing operating systems</t>
-  </si>
-  <si>
-    <t>Daphne Moon</t>
-  </si>
-  <si>
-    <t>performing physical therapy</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Morrissey</t>
-  </si>
-  <si>
-    <t>pulling dirty political tricks</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>Oscar Wilde</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>frying crabby patties</t>
-  </si>
-  <si>
-    <t>promoting Fascism</t>
-  </si>
-  <si>
-    <t>Edna Krabappel</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>Don Draper</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Pac Man</t>
-  </si>
-  <si>
-    <t>eluding electronic ghosts</t>
-  </si>
-  <si>
-    <t>Norman Bates</t>
-  </si>
-  <si>
-    <t>Bette Midler</t>
-  </si>
-  <si>
-    <t>Pyotr Ilyich Tchaikovsky</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>Jeff "Comic Book Guy" Albertson</t>
-  </si>
-  <si>
-    <t>spouting movie trivia</t>
-  </si>
-  <si>
-    <t>Louis Pasteur</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>preaching to presidents</t>
-  </si>
-  <si>
-    <t>Commander Data</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>Angela Merkel</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>Michael O'Leary</t>
-  </si>
-  <si>
-    <t>promoting air travel</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>Lee Harvey Oswald</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>preventing terrorism</t>
-  </si>
-  <si>
-    <t>Kevin Smith</t>
-  </si>
-  <si>
-    <t>podcasting about movies</t>
-  </si>
-  <si>
-    <t>Steve Ballmer</t>
-  </si>
-  <si>
-    <t>running a technology company</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Bob Cratchit</t>
-  </si>
-  <si>
-    <t>writing in ledgers</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Natasha Romanova</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Edmund Blackadder</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>René Descartes</t>
-  </si>
-  <si>
-    <t>teaching philosophy</t>
-  </si>
-  <si>
-    <t>Leonardo Da Vinci</t>
-  </si>
-  <si>
-    <t>painting realistic pictures</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>escaping from water tanks</t>
-  </si>
-  <si>
-    <t>Frasier Crane</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Judge Joe Dredd</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>chasing flappers</t>
-  </si>
-  <si>
-    <t>Barney Gumble</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>playing tough guys</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>smoking herb</t>
-  </si>
-  <si>
-    <t>Stanley Kowalski</t>
-  </si>
-  <si>
-    <t>moaning about women</t>
-  </si>
-  <si>
-    <t>Joan Crawford</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>killing murderers</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>Rudy Giuliani</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>Cinderella</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Napoleon Bonaparte</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>Victor Meldrew</t>
-  </si>
-  <si>
-    <t>Conan the Barbarian</t>
-  </si>
-  <si>
-    <t>Paul McCartney</t>
-  </si>
-  <si>
-    <t>Nancy Drew</t>
-  </si>
-  <si>
-    <t>William the Conqueror</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Jesse Pinkman</t>
-  </si>
-  <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>Raymond Chandler</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>winning Michelin stars</t>
-  </si>
-  <si>
-    <t>Sylvia Plath</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>Jor El</t>
-  </si>
-  <si>
-    <t>inventing new technologies</t>
-  </si>
-  <si>
-    <t>George Michael</t>
-  </si>
-  <si>
-    <t>Alexander Fleming</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>painting dark pictures</t>
-  </si>
-  <si>
-    <t>Bob Woodward</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>falling gracefully</t>
-  </si>
-  <si>
-    <t>offering medical opinions</t>
-  </si>
-  <si>
-    <t>Chelsea Manning</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>making escape plans</t>
-  </si>
-  <si>
-    <t>Mr. Spock</t>
-  </si>
-  <si>
-    <t>Ned Flanders</t>
-  </si>
-  <si>
-    <t>being a good neighbor</t>
-  </si>
-  <si>
-    <t>Obi-wan Kenobi</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Larry Page</t>
-  </si>
-  <si>
-    <t>building a search engine</t>
-  </si>
-  <si>
-    <t>Barbie</t>
+    <t>George Harrison</t>
   </si>
 </sst>
 </file>
@@ -1041,9 +1041,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.25390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1076,18 +1076,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1098,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1109,18 +1109,18 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1131,7 +1131,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1153,7 +1153,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1164,7 +1164,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1175,7 +1175,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1186,7 +1186,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1197,7 +1197,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1208,7 +1208,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1230,7 +1230,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1252,7 +1252,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1263,7 +1263,7 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1271,21 +1271,21 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1293,7 +1293,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1301,263 +1301,263 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1565,43 +1565,43 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1609,21 +1609,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1631,145 +1631,145 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -1780,7 +1780,7 @@
         <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -1791,7 +1791,7 @@
         <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1802,7 +1802,7 @@
         <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -1813,7 +1813,7 @@
         <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -1824,7 +1824,7 @@
         <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -1835,7 +1835,7 @@
         <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -1843,40 +1843,40 @@
         <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1884,54 +1884,54 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1939,10 +1939,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1953,40 +1953,40 @@
         <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2005,54 +2005,54 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2060,134 +2060,134 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B99" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" t="s">
         <v>188</v>
       </c>
-      <c r="B102" t="s">
-        <v>189</v>
-      </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" t="s">
         <v>190</v>
       </c>
-      <c r="B103" t="s">
-        <v>191</v>
-      </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B104" t="s">
         <v>192</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
@@ -2195,87 +2195,87 @@
         <v>193</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" t="s">
         <v>204</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
@@ -2286,7 +2286,7 @@
         <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
@@ -2297,7 +2297,7 @@
         <v>208</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
@@ -2308,7 +2308,7 @@
         <v>210</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -2319,7 +2319,7 @@
         <v>212</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -2330,7 +2330,7 @@
         <v>214</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -2338,7 +2338,7 @@
         <v>215</v>
       </c>
       <c r="B118" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2346,98 +2346,98 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B122" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B124" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B125" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B126" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2445,98 +2445,98 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B128" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B129" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B130" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B131" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B134" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B135" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2544,274 +2544,274 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B137" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="B138" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B139" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B140" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="B143" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>260</v>
+      </c>
+      <c r="B144" t="s">
         <v>261</v>
       </c>
-      <c r="B144" t="s">
-        <v>262</v>
-      </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B145" t="s">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B146" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B148" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B149" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B150" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B151" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B152" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B153" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="B154" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B155" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B156" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>281</v>
+      </c>
+      <c r="B157" t="s">
         <v>282</v>
       </c>
-      <c r="B157" t="s">
-        <v>283</v>
-      </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>283</v>
+      </c>
+      <c r="B158" t="s">
         <v>284</v>
       </c>
-      <c r="B158" t="s">
-        <v>285</v>
-      </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>285</v>
+      </c>
+      <c r="B159" t="s">
         <v>286</v>
       </c>
-      <c r="B159" t="s">
-        <v>287</v>
-      </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>288</v>
+        <v>88</v>
       </c>
       <c r="B160" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B161" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2819,65 +2819,65 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B162" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B163" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B164" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="B165" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B166" t="s">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B167" t="s">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -2885,13 +2885,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="B168" t="s">
         <v>301</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
@@ -2899,18 +2899,18 @@
         <v>302</v>
       </c>
       <c r="B169" t="s">
-        <v>303</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -2918,79 +2918,79 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B171" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="B172" t="s">
-        <v>308</v>
+        <v>64</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B173" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B174" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B175" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B176" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>315</v>
+      </c>
+      <c r="B177" t="s">
         <v>316</v>
       </c>
-      <c r="B177" t="s">
-        <v>208</v>
-      </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178">
@@ -3001,7 +3001,7 @@
         <v>318</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179">
@@ -3012,7 +3012,7 @@
         <v>320</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180">
@@ -3023,7 +3023,7 @@
         <v>322</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
@@ -3031,10 +3031,10 @@
         <v>323</v>
       </c>
       <c r="B181" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject120.xlsx
+++ b/StaffProject120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="326">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,967 +23,973 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Jesse Jackson</t>
-  </si>
-  <si>
-    <t>suing large corporations</t>
+    <t>Niles Crane</t>
+  </si>
+  <si>
+    <t>nurturing sibling rivalry</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Clarice Starling</t>
+  </si>
+  <si>
+    <t>hunting serial killers</t>
+  </si>
+  <si>
+    <t>Sid Vicious</t>
+  </si>
+  <si>
+    <t>singing punk rock songs</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Ray Charles</t>
+    <t>Commander Data</t>
+  </si>
+  <si>
+    <t>piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Uriah Heap</t>
+  </si>
+  <si>
+    <t>practicing insincerity</t>
+  </si>
+  <si>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>painting dark pictures</t>
+  </si>
+  <si>
+    <t>Angelina Jolie</t>
+  </si>
+  <si>
+    <t>adopting children</t>
+  </si>
+  <si>
+    <t>The Artful Dodger</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>Sammy Davis Jr.</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>fighting civil wars</t>
+  </si>
+  <si>
+    <t>Judy Garland</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>Tina Turner</t>
+  </si>
+  <si>
+    <t>gyrating hips</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>making witty remarks</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>giving investment advice</t>
+  </si>
+  <si>
+    <t>Tyra Banks</t>
+  </si>
+  <si>
+    <t>modeling clothes</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Dr. Greg House</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>writing on wax tablets</t>
+  </si>
+  <si>
+    <t>Christina Aguilera</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>brokering peace deals</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>winning Oscars</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Jay Gatsby</t>
+  </si>
+  <si>
+    <t>throwing lavish parties</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
+  </si>
+  <si>
+    <t>eating carrots</t>
+  </si>
+  <si>
+    <t>Sydney Bristow</t>
+  </si>
+  <si>
+    <t>spying for the CIA</t>
+  </si>
+  <si>
+    <t>Joey Tribbiani</t>
+  </si>
+  <si>
+    <t>starring in daytime soap operas</t>
+  </si>
+  <si>
+    <t>Caitlyn Jenner</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>Melania Trump</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
   </si>
   <si>
     <t>writing pop songs</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>writing beat fiction</t>
-  </si>
-  <si>
-    <t>Victor Frankenstein</t>
-  </si>
-  <si>
-    <t>creating monsters</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Miss Jane Marple</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>singing blues songs</t>
-  </si>
-  <si>
-    <t>Liz Lemon</t>
-  </si>
-  <si>
-    <t>writing TV comedies</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>preaching to presidents</t>
+    <t>Michael Moore</t>
+  </si>
+  <si>
+    <t>making provocative documentaries</t>
+  </si>
+  <si>
+    <t>John Wayne</t>
+  </si>
+  <si>
+    <t>walking like a man</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Lisbeth Salander</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>Mickey Rourke</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>drinking too much red wine</t>
+  </si>
+  <si>
+    <t>Jerry Seinfeld</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>Inspector Endeavour Morse</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>Gustavo Fring</t>
+  </si>
+  <si>
+    <t>selling chrystal meth</t>
+  </si>
+  <si>
+    <t>Tracy Jordan</t>
+  </si>
+  <si>
+    <t>Victor Meldrew</t>
+  </si>
+  <si>
+    <t>complaining about everything</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>RuPaul</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Jerry Springer</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows</t>
+  </si>
+  <si>
+    <t>Jean-Luc Picard</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>Truman Capote</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>Charlie Harper</t>
+  </si>
+  <si>
+    <t>seducing young women</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>chasing interns</t>
+  </si>
+  <si>
+    <t>Janet Jackson</t>
+  </si>
+  <si>
+    <t>Richard Nixon</t>
+  </si>
+  <si>
+    <t>pulling dirty political tricks</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>collecting treasures</t>
+  </si>
+  <si>
+    <t>Martin Luther King</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>Alexander the Great</t>
+  </si>
+  <si>
+    <t>building empires</t>
+  </si>
+  <si>
+    <t>Steve Guttenberg</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>making new wave movies</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>Biff Tannen</t>
+  </si>
+  <si>
+    <t>mangling idioms</t>
+  </si>
+  <si>
+    <t>Mike  Pence</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>Marilyn Monroe</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Tom Sawyer</t>
+  </si>
+  <si>
+    <t>Wilkins Micawber</t>
+  </si>
+  <si>
+    <t>buying on credit</t>
+  </si>
+  <si>
+    <t>Holly Golightly</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Mae West</t>
+  </si>
+  <si>
+    <t>trading innuendo</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Pope Benedict XVI</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>Lando Calrissian</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Richard Branson</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>Tom Hanks</t>
+  </si>
+  <si>
+    <t>Leon Trotsky</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Virginia Woolf</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Hans Gruber</t>
+  </si>
+  <si>
+    <t>organizing armed robberies</t>
+  </si>
+  <si>
+    <t>Don Draper</t>
+  </si>
+  <si>
+    <t>developing advertising campaigns</t>
+  </si>
+  <si>
+    <t>Bilbo Baggins</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>Mrs. Doubtfire</t>
+  </si>
+  <si>
+    <t>impersonating women</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Katniss Everdeen</t>
+  </si>
+  <si>
+    <t>spreading revolution</t>
+  </si>
+  <si>
+    <t>Tom Brady</t>
+  </si>
+  <si>
+    <t>signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>Jane Goodall</t>
+  </si>
+  <si>
+    <t>living amongst apes</t>
+  </si>
+  <si>
+    <t>Michael O'Leary</t>
+  </si>
+  <si>
+    <t>selling cheap airline seats</t>
+  </si>
+  <si>
+    <t>Santa Claus</t>
+  </si>
+  <si>
+    <t>delivering presents</t>
+  </si>
+  <si>
+    <t>playing everyman characters</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>Green Lantern</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>stealing jewels</t>
+  </si>
+  <si>
+    <t>Optimus Prime</t>
+  </si>
+  <si>
+    <t>Thomas Edison</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>John McClane</t>
+  </si>
+  <si>
+    <t>rescuing hostages</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>flirting with rednecks</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>promoting hair products</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>promoting big business</t>
+  </si>
+  <si>
+    <t>Frodo Baggins</t>
+  </si>
+  <si>
+    <t>disposing of unwanted jewelry</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>managing large development projects</t>
+  </si>
+  <si>
+    <t>Nelson Muntz</t>
+  </si>
+  <si>
+    <t>bullying schoolkids</t>
+  </si>
+  <si>
+    <t>Selma Bouvier</t>
+  </si>
+  <si>
+    <t>smoking Laramie Hi-Tars</t>
+  </si>
+  <si>
+    <t>Carl Von Clausewitz</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>clipping coupons</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>speaking with funny accents</t>
+  </si>
+  <si>
+    <t>Jimmy Cagney</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>King David</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>pretending to wrestle</t>
+  </si>
+  <si>
+    <t>Frasier Crane</t>
+  </si>
+  <si>
+    <t>analyzing the sub-conscious</t>
+  </si>
+  <si>
+    <t>Naomi Campbell</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>Christiane Amanpour</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>Sophocles</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>Cher</t>
+  </si>
+  <si>
+    <t>Boy George</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>writing purple prose</t>
+  </si>
+  <si>
+    <t>Meghan Markle</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>Julian Assange</t>
+  </si>
+  <si>
+    <t>promoting openness</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Joe DiMaggio</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>writing crime stories</t>
+  </si>
+  <si>
+    <t>Lucifer</t>
+  </si>
+  <si>
+    <t>burning the wicked</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>James Dean</t>
+  </si>
+  <si>
+    <t>racing fast cars</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Gandalf the Grey</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>Miss Havisham</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>Oscar Pistorius</t>
+  </si>
+  <si>
+    <t>running races</t>
+  </si>
+  <si>
+    <t>Marge Simpson</t>
+  </si>
+  <si>
+    <t>raising a family</t>
+  </si>
+  <si>
+    <t>Edna Krabappel</t>
+  </si>
+  <si>
+    <t>smoking during recess</t>
+  </si>
+  <si>
+    <t>Jack The Ripper</t>
+  </si>
+  <si>
+    <t>terrorizing prostitutes</t>
+  </si>
+  <si>
+    <t>Tim Berners-Lee</t>
+  </si>
+  <si>
+    <t>promoting the Web</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>Martha Stewart</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>commanding a whaling ship</t>
+  </si>
+  <si>
+    <t>Russell Brand</t>
+  </si>
+  <si>
+    <t>fomenting social revolution</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>singing romantic songs</t>
+  </si>
+  <si>
+    <t>Staff Member</t>
   </si>
   <si>
     <t>Piers Morgan</t>
   </si>
   <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>running a school for gifted teens</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Stormy Daniels</t>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Sun Tzu</t>
+  </si>
+  <si>
+    <t>Robinson Crusoe</t>
+  </si>
+  <si>
+    <t>making home-made clothes</t>
+  </si>
+  <si>
+    <t>J. Edgar Hoover</t>
+  </si>
+  <si>
+    <t>running the FBI</t>
+  </si>
+  <si>
+    <t>Pete Sampras</t>
+  </si>
+  <si>
+    <t>winning tennis matches</t>
+  </si>
+  <si>
+    <t>Dean Winchester</t>
+  </si>
+  <si>
+    <t>killing demons</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>chasing murderers</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>commiting perjury</t>
+  </si>
+  <si>
+    <t>posing riddles</t>
+  </si>
+  <si>
+    <t>Lara Croft</t>
+  </si>
+  <si>
+    <t>looking for hidden treasures</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>singing experimental songs</t>
+  </si>
+  <si>
+    <t>Kim Philby</t>
+  </si>
+  <si>
+    <t>stabbing in the back</t>
+  </si>
+  <si>
+    <t>Johann von Goethe</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>attending cocktail parties</t>
+  </si>
+  <si>
+    <t>digging for antiquities</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>staring at the moon</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
+  </si>
+  <si>
+    <t>Joe Louis</t>
+  </si>
+  <si>
+    <t>knocking out opponents</t>
+  </si>
+  <si>
+    <t>William Randolph Hearst</t>
+  </si>
+  <si>
+    <t>publishing newspapers</t>
+  </si>
+  <si>
+    <t>Socrates</t>
+  </si>
+  <si>
+    <t>teaching the next generation</t>
+  </si>
+  <si>
+    <t>Modesty Blaise</t>
+  </si>
+  <si>
+    <t>pulling capers</t>
+  </si>
+  <si>
+    <t>Jenna Jameson</t>
   </si>
   <si>
     <t>starring in pornographic movies</t>
   </si>
   <si>
-    <t>Leon Trotsky</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>Harvey Milk</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>telling epic tales</t>
-  </si>
-  <si>
-    <t>Lee Harvey Oswald</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>Melania Trump</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Lord Percy Percy</t>
-  </si>
-  <si>
-    <t>flaunting foppish fashions</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>making billions</t>
-  </si>
-  <si>
-    <t>Whitney Houston</t>
-  </si>
-  <si>
-    <t>Kenny G</t>
-  </si>
-  <si>
-    <t>playing the saxophone</t>
-  </si>
-  <si>
-    <t>William Shatner</t>
-  </si>
-  <si>
-    <t>starring in TV shows</t>
-  </si>
-  <si>
-    <t>Johannes Gutenberg</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Professor Charles Xavier</t>
-  </si>
-  <si>
-    <t>teaching the next generation</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>Luciano Pavarotti</t>
-  </si>
-  <si>
-    <t>singing opera arias</t>
-  </si>
-  <si>
-    <t>Eleanor Roosevelt</t>
-  </si>
-  <si>
-    <t>Walt Whitman</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>Chris Rock</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>telling dry jokes</t>
-  </si>
-  <si>
-    <t>Scipio Africanus</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Larry Page</t>
-  </si>
-  <si>
-    <t>running a tech giant</t>
-  </si>
-  <si>
-    <t>King Henry VIII</t>
-  </si>
-  <si>
-    <t>trading in wives</t>
-  </si>
-  <si>
-    <t>Rick Sanchez</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Cher</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Samuel Pepys</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>brokering peace deals</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>Jerry Maguire</t>
-  </si>
-  <si>
-    <t>promoting greed</t>
-  </si>
-  <si>
-    <t>Abraham Lincoln</t>
-  </si>
-  <si>
-    <t>fighting civil wars</t>
-  </si>
-  <si>
-    <t>Wilson "Kingpin" Fisk</t>
-  </si>
-  <si>
-    <t>grabbing power</t>
-  </si>
-  <si>
-    <t>John Merrick</t>
-  </si>
-  <si>
-    <t>hiding from the public</t>
-  </si>
-  <si>
-    <t>Selma Bouvier</t>
-  </si>
-  <si>
-    <t>clipping coupons</t>
-  </si>
-  <si>
-    <t>Kim Jung-un</t>
-  </si>
-  <si>
-    <t>enriching uranium</t>
-  </si>
-  <si>
-    <t>Jackson Pollock</t>
-  </si>
-  <si>
-    <t>dripping paint onto canvas</t>
-  </si>
-  <si>
-    <t>Kevin Smith</t>
-  </si>
-  <si>
-    <t>selling comic books</t>
-  </si>
-  <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>Nigel Tufnel</t>
-  </si>
-  <si>
-    <t>playing rock guitar</t>
-  </si>
-  <si>
-    <t>Yosemite Sam</t>
-  </si>
-  <si>
-    <t>losing control</t>
-  </si>
-  <si>
-    <t>Malcolm X</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>The Artful Dodger</t>
-  </si>
-  <si>
-    <t>picking pockets</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>Nikola Tesla</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>winning Michelin stars</t>
-  </si>
-  <si>
-    <t>Kobe Bryant</t>
-  </si>
-  <si>
-    <t>making dunk shots</t>
-  </si>
-  <si>
-    <t>Coco Chanel</t>
-  </si>
-  <si>
-    <t>selling perfumes</t>
-  </si>
-  <si>
-    <t>Samwise Gamgee</t>
-  </si>
-  <si>
-    <t>planting daffodils</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>gossiping with galpals</t>
-  </si>
-  <si>
-    <t>Seth MacFarlane</t>
-  </si>
-  <si>
-    <t>making vulgar jokes</t>
-  </si>
-  <si>
-    <t>Tracy Jordan</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Oscar Pistorius</t>
-  </si>
-  <si>
-    <t>competing in the Olympics</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>writing experimental songs</t>
-  </si>
-  <si>
-    <t>Winona Ryder</t>
-  </si>
-  <si>
-    <t>Saga Norén</t>
-  </si>
-  <si>
-    <t>Mister Magoo</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>writing epic poetry</t>
-  </si>
-  <si>
-    <t>Tom Ripley</t>
-  </si>
-  <si>
-    <t>forging art</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>plotting strategies</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>Deep Throat</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>Frank Underwood</t>
-  </si>
-  <si>
-    <t>manipulating political pawns</t>
-  </si>
-  <si>
-    <t>Tarzan</t>
-  </si>
-  <si>
-    <t>living amongst apes</t>
-  </si>
-  <si>
-    <t>turning it up to 11</t>
-  </si>
-  <si>
-    <t>playing God</t>
-  </si>
-  <si>
-    <t>Santa Claus</t>
-  </si>
-  <si>
-    <t>climbing down chimneys</t>
-  </si>
-  <si>
-    <t>Michael Phelps</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>arresting bootleggers</t>
-  </si>
-  <si>
-    <t>El Chappo</t>
-  </si>
-  <si>
-    <t>Jean-Luc Picard</t>
-  </si>
-  <si>
-    <t>making strategic decisions</t>
-  </si>
-  <si>
-    <t>Doctor Stephen Strange</t>
-  </si>
-  <si>
-    <t>studying magic tricks</t>
-  </si>
-  <si>
-    <t>Robert Redford</t>
-  </si>
-  <si>
-    <t>running film festivals</t>
-  </si>
-  <si>
-    <t>Oedipus Rex</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Kevin Spacey</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Lionel Hutz</t>
-  </si>
-  <si>
-    <t>losing court cases</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t>running theme parks</t>
-  </si>
-  <si>
-    <t>Michael J. Fox</t>
-  </si>
-  <si>
-    <t>throwing fund-raisers for Parkinson's disease</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>Morpheus</t>
-  </si>
-  <si>
-    <t>searching for the messiah</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>exploring darkest Africa</t>
-  </si>
-  <si>
-    <t>Neil Armstrong</t>
-  </si>
-  <si>
-    <t>collecting rock samples</t>
-  </si>
-  <si>
-    <t>Edward Cullen</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>Weird Al Yankovic</t>
-  </si>
-  <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>spying for the enemy</t>
-  </si>
-  <si>
-    <t>Rocky Balboa</t>
-  </si>
-  <si>
-    <t>winning boxing matches</t>
-  </si>
-  <si>
-    <t>Hellboy</t>
-  </si>
-  <si>
-    <t>battling the forces of darkness</t>
-  </si>
-  <si>
-    <t>Samuel Johnson</t>
-  </si>
-  <si>
-    <t>creating dictionaries</t>
-  </si>
-  <si>
-    <t>Wesley Crusher</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Groundskeeper Willie MacDougal</t>
-  </si>
-  <si>
-    <t>cleaning floors</t>
-  </si>
-  <si>
-    <t>Tess Durbeyfield</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Barney Stinson</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>Iggy Pop</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>Mary Poppins</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>Charlie Harper</t>
-  </si>
-  <si>
-    <t>seducing young women</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Inspector Endeavour Morse</t>
-  </si>
-  <si>
-    <t>John Wayne</t>
-  </si>
-  <si>
-    <t>walking like a man</t>
-  </si>
-  <si>
-    <t>Dr. Greg House</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>Paul McCartney</t>
-  </si>
-  <si>
-    <t>Carl Von Clausewitz</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>abusing power</t>
-  </si>
-  <si>
-    <t>Staff Member</t>
-  </si>
-  <si>
-    <t>Lenny Bruce</t>
-  </si>
-  <si>
-    <t>Boudicca</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>Cristiano Ronaldo</t>
-  </si>
-  <si>
-    <t>Wyatt Earp</t>
-  </si>
-  <si>
-    <t>running a frontier town</t>
-  </si>
-  <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>setting mousetraps</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Mel Brooks</t>
-  </si>
-  <si>
-    <t>writing funny movies</t>
-  </si>
-  <si>
-    <t>directing the business of state</t>
-  </si>
-  <si>
-    <t>Sigmund Freud</t>
-  </si>
-  <si>
-    <t>analyzing the sub-conscious</t>
-  </si>
-  <si>
-    <t>Rush Limbaugh</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>Monica Geller</t>
-  </si>
-  <si>
-    <t>fussing about cleanliness</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>pursuing criminals</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Kellyanne Conway</t>
-  </si>
-  <si>
-    <t>directing animated films</t>
-  </si>
-  <si>
-    <t>Simon Cowell</t>
-  </si>
-  <si>
-    <t>promoting pop music</t>
-  </si>
-  <si>
-    <t>Sarah Connor</t>
-  </si>
-  <si>
-    <t>preparing for the apocalypse</t>
-  </si>
-  <si>
-    <t>Baron Munchausen</t>
-  </si>
-  <si>
-    <t>telling tall tales</t>
-  </si>
-  <si>
-    <t>Svengali</t>
-  </si>
-  <si>
-    <t>manipulating ingenues</t>
-  </si>
-  <si>
-    <t>Le Chiffre</t>
-  </si>
-  <si>
-    <t>cheating at poker</t>
-  </si>
-  <si>
-    <t>Richard Branson</t>
-  </si>
-  <si>
-    <t>selling airline seats</t>
-  </si>
-  <si>
-    <t>Derek Zoolander</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>Sean Connery</t>
-  </si>
-  <si>
-    <t>playing James Bond</t>
-  </si>
-  <si>
-    <t>Ivanka Trump</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>fighting with the mob</t>
-  </si>
-  <si>
-    <t>Rocket Raccoon</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>John Constantine</t>
-  </si>
-  <si>
-    <t>exorcising demons</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Tom Waits</t>
-  </si>
-  <si>
-    <t>Ayatollah Khomeini</t>
-  </si>
-  <si>
-    <t>issuing fatwas</t>
-  </si>
-  <si>
-    <t>Plato</t>
-  </si>
-  <si>
-    <t>Martin Luther King</t>
-  </si>
-  <si>
-    <t>promoting racial harmony</t>
-  </si>
-  <si>
-    <t>Jesus Christ</t>
-  </si>
-  <si>
-    <t>preaching tolerance</t>
-  </si>
-  <si>
-    <t>Johann Sebastian Bach</t>
-  </si>
-  <si>
-    <t>playing the organ</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Romeo Montague</t>
-  </si>
-  <si>
-    <t>falling in love</t>
-  </si>
-  <si>
-    <t>Mad Max Rockatansky</t>
-  </si>
-  <si>
-    <t>avenging loved ones</t>
-  </si>
-  <si>
-    <t>Rain Man</t>
-  </si>
-  <si>
-    <t>counting tooth picks</t>
-  </si>
-  <si>
-    <t>Marco Polo</t>
-  </si>
-  <si>
-    <t>exploring foreign countries</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>E.T.</t>
+  </si>
+  <si>
+    <t>phoning home</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>Jim Morrison</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>hunting raccoons</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1047,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.46875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.71875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1098,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1109,26 +1115,26 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1136,54 +1142,54 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1191,10 +1197,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1202,109 +1208,109 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1312,46 +1318,46 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -1384,7 +1390,7 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1395,7 +1401,7 @@
         <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1417,7 +1423,7 @@
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -1425,21 +1431,21 @@
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1450,7 +1456,7 @@
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -1472,7 +1478,7 @@
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1505,7 +1511,7 @@
         <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
@@ -1516,7 +1522,7 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1527,7 +1533,7 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -1538,7 +1544,7 @@
         <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1557,7 +1563,7 @@
         <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1565,10 +1571,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1576,10 +1582,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -1587,164 +1593,164 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
         <v>100</v>
       </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
         <v>102</v>
       </c>
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
         <v>104</v>
       </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
         <v>106</v>
       </c>
-      <c r="B54" t="s">
-        <v>107</v>
-      </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
         <v>108</v>
       </c>
-      <c r="B55" t="s">
-        <v>109</v>
-      </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
         <v>110</v>
       </c>
-      <c r="B56" t="s">
-        <v>111</v>
-      </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1752,10 +1758,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1763,13 +1769,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
         <v>127</v>
       </c>
-      <c r="B66" t="s">
-        <v>85</v>
-      </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
@@ -1780,7 +1786,7 @@
         <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -1788,40 +1794,40 @@
         <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
         <v>132</v>
       </c>
-      <c r="B69" t="s">
-        <v>133</v>
-      </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1829,54 +1835,54 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1884,10 +1890,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -1895,65 +1901,65 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -1961,13 +1967,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" t="s">
         <v>156</v>
       </c>
-      <c r="B84" t="s">
-        <v>17</v>
-      </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
@@ -1978,7 +1984,7 @@
         <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -1989,15 +1995,15 @@
         <v>160</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2005,43 +2011,43 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -2049,10 +2055,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2060,65 +2066,65 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2126,10 +2132,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2137,10 +2143,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B100" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2148,54 +2154,54 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B103" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -2203,134 +2209,134 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B108" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B110" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B115" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B116" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
@@ -2341,7 +2347,7 @@
         <v>216</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
@@ -2352,7 +2358,7 @@
         <v>218</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
@@ -2363,7 +2369,7 @@
         <v>220</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -2374,7 +2380,7 @@
         <v>222</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -2385,7 +2391,7 @@
         <v>224</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
@@ -2396,7 +2402,7 @@
         <v>226</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
@@ -2407,7 +2413,7 @@
         <v>228</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
@@ -2415,62 +2421,62 @@
         <v>229</v>
       </c>
       <c r="B125" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B126" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B127" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B130" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C130" t="s">
         <v>10</v>
@@ -2478,21 +2484,21 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B132" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
@@ -2500,68 +2506,68 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B133" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B134" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B135" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B136" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B137" t="s">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
@@ -2569,7 +2575,7 @@
         <v>252</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2577,10 +2583,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B140" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C140" t="s">
         <v>10</v>
@@ -2588,21 +2594,21 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B141" t="s">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="B142" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C142" t="s">
         <v>10</v>
@@ -2616,7 +2622,7 @@
         <v>259</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -2627,7 +2633,7 @@
         <v>261</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145">
@@ -2635,7 +2641,7 @@
         <v>262</v>
       </c>
       <c r="B145" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="C145" t="s">
         <v>10</v>
@@ -2643,32 +2649,32 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B146" t="s">
-        <v>264</v>
+        <v>70</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="B147" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2676,35 +2682,35 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B150" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B151" t="s">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
@@ -2712,40 +2718,40 @@
         <v>274</v>
       </c>
       <c r="B152" t="s">
-        <v>66</v>
+        <v>275</v>
       </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B153" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B155" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C155" t="s">
         <v>10</v>
@@ -2753,54 +2759,54 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B156" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B157" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B158" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B159" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>88</v>
+        <v>289</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="C160" t="s">
         <v>10</v>
@@ -2808,10 +2814,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2819,21 +2825,21 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B162" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C162" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B163" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C163" t="s">
         <v>10</v>
@@ -2841,43 +2847,43 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B164" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>182</v>
+        <v>298</v>
       </c>
       <c r="B165" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B166" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B167" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -2885,43 +2891,43 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B168" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B170" t="s">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B171" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C171" t="s">
         <v>10</v>
@@ -2929,10 +2935,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B172" t="s">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="C172" t="s">
         <v>10</v>
@@ -2940,87 +2946,87 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B173" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B174" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="B175" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B176" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B177" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B178" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B179" t="s">
-        <v>320</v>
+        <v>158</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B180" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C180" t="s">
         <v>10</v>
@@ -3028,13 +3034,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B181" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject120.xlsx
+++ b/StaffProject120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="332">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,91 +23,382 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Keith Richards</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Clark Gable</t>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>hunting raccoons</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>promoting Buddhism</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Joseph Goebbels</t>
+  </si>
+  <si>
+    <t>running a propaganda machine</t>
+  </si>
+  <si>
+    <t>Sigmund Freud</t>
+  </si>
+  <si>
+    <t>analyzing the sub-conscious</t>
+  </si>
+  <si>
+    <t>Mr. Spock</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>Leroy Jethro Gibbs</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>Captain William Bligh</t>
+  </si>
+  <si>
+    <t>cracking the whip</t>
+  </si>
+  <si>
+    <t>Anne Frank</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>Jimmy Cagney</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>Niccolò Paganini</t>
+  </si>
+  <si>
+    <t>playing the violin</t>
+  </si>
+  <si>
+    <t>Joseph McCarthy</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>plagiarizing political speeches</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>Mike Tyson</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>Michael Corleone</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>Mad Max Rockatansky</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Saga Norén</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Boris Johnson</t>
+  </si>
+  <si>
+    <t>engaging in hapless hijinks</t>
+  </si>
+  <si>
+    <t>Jay Leno</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>René Descartes</t>
+  </si>
+  <si>
+    <t>teaching philosophy</t>
+  </si>
+  <si>
+    <t>Judas Iscariot</t>
+  </si>
+  <si>
+    <t>selling out</t>
+  </si>
+  <si>
+    <t>Maximus Decimus Meridius</t>
+  </si>
+  <si>
+    <t>commanding Roman legions</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>Juliet Capulet</t>
+  </si>
+  <si>
+    <t>watching the sun rise</t>
+  </si>
+  <si>
+    <t>beating menial staff</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>Tyrion Lannister</t>
+  </si>
+  <si>
+    <t>developing political strategies</t>
+  </si>
+  <si>
+    <t>Norman Rockwell</t>
+  </si>
+  <si>
+    <t>painting magazine covers</t>
+  </si>
+  <si>
+    <t>Margaret Thatcher</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>watching TV</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Antonio Salieri</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Frida Kahlo</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>Bette Midler</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>King Arthur</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>Ludwig Van Beethoven</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>Janet Jackson</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Harriet Tubman</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>Rachel Green</t>
+  </si>
+  <si>
+    <t>getting a nose job</t>
+  </si>
+  <si>
+    <t>Tom Waits</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>Tracy Jordan</t>
   </si>
   <si>
     <t>starring in Hollywood movies</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Bruce Willis</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>Tina Fey</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>DS</t>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>Wernher von Braun</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>Iggy Pop</t>
+  </si>
+  <si>
+    <t>doing raunchy stage acts</t>
+  </si>
+  <si>
+    <t>Archimedes</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>seducing emperors</t>
+  </si>
+  <si>
+    <t>Miles Davis</t>
+  </si>
+  <si>
+    <t>playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>modeling DNA</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Inspector Jacques Clouseau</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
   </si>
   <si>
     <t>Judy Garland</t>
   </si>
   <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Jerry Maguire</t>
-  </si>
-  <si>
-    <t>promoting greed</t>
-  </si>
-  <si>
-    <t>Eliza Doolittle</t>
-  </si>
-  <si>
-    <t>handing out flowers</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Richard Nixon</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Vincent Van Gogh</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>writing plays</t>
+    <t>Joey Tribbiani</t>
+  </si>
+  <si>
+    <t>starring in daytime soap operas</t>
+  </si>
+  <si>
+    <t>Commander Data</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>writing about social problems</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Zsa Zsa Gabor</t>
+  </si>
+  <si>
+    <t>divorcing husbands</t>
   </si>
   <si>
     <t>RuPaul</t>
@@ -116,874 +407,607 @@
     <t>cross-dressing in women's clothes</t>
   </si>
   <si>
-    <t>Tony Blair</t>
-  </si>
-  <si>
-    <t>promoting liberal values</t>
-  </si>
-  <si>
-    <t>Lenny Bruce</t>
-  </si>
-  <si>
-    <t>commenting on social issues</t>
-  </si>
-  <si>
-    <t>Erik "Magneto" Lehnsherr</t>
+    <t>Tom Sawyer</t>
+  </si>
+  <si>
+    <t>Biff Tannen</t>
+  </si>
+  <si>
+    <t>giving noogies</t>
+  </si>
+  <si>
+    <t>Stewie Griffin</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>reading braille</t>
+  </si>
+  <si>
+    <t>Woody Allen</t>
+  </si>
+  <si>
+    <t>playing the clarinet</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>Mark Twain</t>
+  </si>
+  <si>
+    <t>writing folksy fiction</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Tyler Durden</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>Shylock</t>
+  </si>
+  <si>
+    <t>amassing wealth</t>
+  </si>
+  <si>
+    <t>Roy Batty</t>
+  </si>
+  <si>
+    <t>looking for immortality</t>
+  </si>
+  <si>
+    <t>Boudicca</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Stephen Colbert</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>leading an exodus</t>
+  </si>
+  <si>
+    <t>Adolf Eichmann</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>P. T. Barnum</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Marcel Duchamp</t>
+  </si>
+  <si>
+    <t>making subversive art</t>
+  </si>
+  <si>
+    <t>Tom Cruise</t>
+  </si>
+  <si>
+    <t>jumping on couches</t>
+  </si>
+  <si>
+    <t>Amelia Earhart</t>
+  </si>
+  <si>
+    <t>breaking records</t>
+  </si>
+  <si>
+    <t>Megan Fox</t>
+  </si>
+  <si>
+    <t>Jason Bourne</t>
+  </si>
+  <si>
+    <t>eluding the CIA</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>smoking cigarettes</t>
+  </si>
+  <si>
+    <t>Steven Spielberg</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Ed Wood</t>
+  </si>
+  <si>
+    <t>directing bad movies</t>
+  </si>
+  <si>
+    <t>Savonarola</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>promoting movie violence</t>
+  </si>
+  <si>
+    <t>Judge Joe Dredd</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>Wayne Gretzky</t>
+  </si>
+  <si>
+    <t>playing ice hockey</t>
+  </si>
+  <si>
+    <t>Kevin Smith</t>
+  </si>
+  <si>
+    <t>selling comic books</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>giving speeches</t>
+  </si>
+  <si>
+    <t>Galileo Galilei</t>
+  </si>
+  <si>
+    <t>promoting Heliocentrism</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Yosemite Sam</t>
+  </si>
+  <si>
+    <t>losing control</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t>collecting green Kryponite</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>teaching magic</t>
+  </si>
+  <si>
+    <t>Truman Capote</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>pushing dodgy operating systems</t>
+  </si>
+  <si>
+    <t>Saruman the White</t>
+  </si>
+  <si>
+    <t>plotting with the enemy</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars</t>
+  </si>
+  <si>
+    <t>Gore Vidal</t>
+  </si>
+  <si>
+    <t>writing historical fiction</t>
+  </si>
+  <si>
+    <t>Coriolanus Snow</t>
+  </si>
+  <si>
+    <t>crushing dissent</t>
+  </si>
+  <si>
+    <t>Deep Throat</t>
+  </si>
+  <si>
+    <t>talking in riddles</t>
+  </si>
+  <si>
+    <t>Ellen Ripley</t>
+  </si>
+  <si>
+    <t>hunting aliens</t>
+  </si>
+  <si>
+    <t>Sitting Bull</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Tom Brady</t>
+  </si>
+  <si>
+    <t>signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>Charles Lindbergh</t>
+  </si>
+  <si>
+    <t>Rico Tubbs</t>
+  </si>
+  <si>
+    <t>General George Patton</t>
+  </si>
+  <si>
+    <t>slapping soldiers</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Willy Wonka</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>Serena Williams</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>Tom Wolfe</t>
+  </si>
+  <si>
+    <t>writing serialized stories</t>
+  </si>
+  <si>
+    <t>Leon Trotsky</t>
+  </si>
+  <si>
+    <t>spreading revolution</t>
+  </si>
+  <si>
+    <t>Sarah Silverman</t>
+  </si>
+  <si>
+    <t>insulting minorities</t>
+  </si>
+  <si>
+    <t>Green Lantern</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Simon Cowell</t>
+  </si>
+  <si>
+    <t>running a media empire</t>
+  </si>
+  <si>
+    <t>Socrates</t>
+  </si>
+  <si>
+    <t>teaching philosophy to future leaders</t>
+  </si>
+  <si>
+    <t>Morty Smith</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
+    <t>Vladimir Putin</t>
+  </si>
+  <si>
+    <t>mangling idioms</t>
+  </si>
+  <si>
+    <t>Queen Elizabeth I</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Richard Dawkins</t>
+  </si>
+  <si>
+    <t>promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Michelangelo</t>
+  </si>
+  <si>
+    <t>painting church ceilings</t>
+  </si>
+  <si>
+    <t>Ringo Starr</t>
+  </si>
+  <si>
+    <t>Kate Moss</t>
+  </si>
+  <si>
+    <t>modeling clothes</t>
+  </si>
+  <si>
+    <t>John McEnroe</t>
+  </si>
+  <si>
+    <t>delivering forehand slams</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>publishing soft pornography</t>
+  </si>
+  <si>
+    <t>Le Chiffre</t>
+  </si>
+  <si>
+    <t>cheating at poker</t>
+  </si>
+  <si>
+    <t>barking orders at subordinates</t>
+  </si>
+  <si>
+    <t>Sylvia Plath</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>Pope Benedict XVI</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>Alexander the Great</t>
+  </si>
+  <si>
+    <t>building empires</t>
+  </si>
+  <si>
+    <t>Helen of Troy</t>
   </si>
   <si>
     <t>preparing for war</t>
   </si>
   <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>John Calvin</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Karl Rove</t>
-  </si>
-  <si>
-    <t>Pope Benedict XVI</t>
-  </si>
-  <si>
-    <t>Conchita Wurst</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>punching out Nazis</t>
-  </si>
-  <si>
-    <t>Rush Limbaugh</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>studying magic tricks</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>seducing emperors</t>
-  </si>
-  <si>
-    <t>Dominique Strauss-Kahn</t>
-  </si>
-  <si>
-    <t>throwing sex parties</t>
-  </si>
-  <si>
-    <t>Jeff Bezos</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>Arya Stark</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>Rick Sanchez</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Grace Hopper</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Jeff Sessions</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>writing about sex</t>
-  </si>
-  <si>
-    <t>Juliet Capulet</t>
-  </si>
-  <si>
-    <t>watching the sun rise</t>
-  </si>
-  <si>
-    <t>Liz Lemon</t>
-  </si>
-  <si>
-    <t>writing TV comedies</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Wolfgang Amadeus Mozart</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>promoting hair products</t>
-  </si>
-  <si>
-    <t>Lando Calrissian</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Kylie Minogue</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>testing scientific theories</t>
-  </si>
-  <si>
-    <t>John F. Kennedy</t>
-  </si>
-  <si>
-    <t>chasing starlets</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Wayne Rooney</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>Marc Jacobs</t>
-  </si>
-  <si>
-    <t>designing clothes</t>
-  </si>
-  <si>
-    <t>R2D2</t>
-  </si>
-  <si>
-    <t>carrying secret plans</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Megan Fox</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>working for the forces of darkness</t>
-  </si>
-  <si>
-    <t>Jeremy Clarkson</t>
-  </si>
-  <si>
-    <t>insulting minorities</t>
-  </si>
-  <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>killing people in ingenious ways</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>chasing criminals</t>
-  </si>
-  <si>
-    <t>Rain Man</t>
-  </si>
-  <si>
-    <t>counting tooth picks</t>
-  </si>
-  <si>
-    <t>Lee Marvin</t>
-  </si>
-  <si>
-    <t>Inspector Jacques Clouseau</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>Martin Luther King</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon</t>
-  </si>
-  <si>
-    <t>Grace Jones</t>
-  </si>
-  <si>
-    <t>Kellyanne Conway</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>Timothy McGee</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>Spartacus</t>
-  </si>
-  <si>
-    <t>leading revolts</t>
-  </si>
-  <si>
-    <t>Virginia Woolf</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Thomas Edison</t>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>Selma Bouvier</t>
+  </si>
+  <si>
+    <t>clipping coupons</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>making prank calls</t>
+  </si>
+  <si>
+    <t>Richie Rich</t>
+  </si>
+  <si>
+    <t>squandering money</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>raising new-age children</t>
+  </si>
+  <si>
+    <t>Jamie Oliver</t>
+  </si>
+  <si>
+    <t>running restaurants</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>Walt Longmire</t>
+  </si>
+  <si>
+    <t>Malcolm X</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Marco Polo</t>
+  </si>
+  <si>
+    <t>opening new markets</t>
+  </si>
+  <si>
+    <t>Eric Cartman</t>
+  </si>
+  <si>
+    <t>executing morally appalling plans</t>
+  </si>
+  <si>
+    <t>Krusty the Clown</t>
+  </si>
+  <si>
+    <t>telling bad jokes</t>
+  </si>
+  <si>
+    <t>Severus Snape</t>
+  </si>
+  <si>
+    <t>teaching the next generation</t>
+  </si>
+  <si>
+    <t>Liza Minnelli</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>extracting confessions</t>
+  </si>
+  <si>
+    <t>Barbra Streisand</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Professor Charles Xavier</t>
+  </si>
+  <si>
+    <t>promoting tolerance</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>monetizing physical assets</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Orville Wright</t>
   </si>
   <si>
     <t>developing new technologies</t>
   </si>
   <si>
-    <t>Bruce Banner</t>
-  </si>
-  <si>
-    <t>flying into a rage</t>
-  </si>
-  <si>
-    <t>Stevie Wonder</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Jack Donaghy</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>Steve Guttenberg</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Sylvester Stallone</t>
-  </si>
-  <si>
-    <t>Steve Bannon</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Shirley Temple</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>bodybuilding</t>
-  </si>
-  <si>
-    <t>Saul Goodman</t>
-  </si>
-  <si>
-    <t>representing criminals</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>singing experimental songs</t>
-  </si>
-  <si>
-    <t>Marco Polo</t>
-  </si>
-  <si>
-    <t>exploring foreign countries</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>John Dillinger</t>
-  </si>
-  <si>
-    <t>robbing banks</t>
-  </si>
-  <si>
-    <t>Kim Kardashian</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>John Lennon</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>Tom Jones</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>Karl Marx</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>Joseph Smith</t>
-  </si>
-  <si>
-    <t>recruiting dissidents</t>
-  </si>
-  <si>
-    <t>Naomi Campbell</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>opening new markets</t>
-  </si>
-  <si>
-    <t>Lindsay Lohan</t>
-  </si>
-  <si>
-    <t>driving under the influence</t>
-  </si>
-  <si>
-    <t>Jimmy Carter</t>
-  </si>
-  <si>
-    <t>building houses for poor people</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>making trains run on time</t>
-  </si>
-  <si>
-    <t>Linus Torvalds</t>
-  </si>
-  <si>
-    <t>developing operating systems</t>
-  </si>
-  <si>
-    <t>Daphne Moon</t>
-  </si>
-  <si>
-    <t>performing physical therapy</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Morrissey</t>
-  </si>
-  <si>
-    <t>pulling dirty political tricks</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>Oscar Wilde</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>frying crabby patties</t>
-  </si>
-  <si>
-    <t>promoting Fascism</t>
-  </si>
-  <si>
-    <t>Edna Krabappel</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>Don Draper</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Pac Man</t>
-  </si>
-  <si>
-    <t>eluding electronic ghosts</t>
-  </si>
-  <si>
-    <t>Norman Bates</t>
-  </si>
-  <si>
-    <t>Bette Midler</t>
-  </si>
-  <si>
-    <t>Pyotr Ilyich Tchaikovsky</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>Jeff "Comic Book Guy" Albertson</t>
-  </si>
-  <si>
-    <t>spouting movie trivia</t>
-  </si>
-  <si>
-    <t>Louis Pasteur</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>preaching to presidents</t>
-  </si>
-  <si>
-    <t>Commander Data</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>Angela Merkel</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>Michael O'Leary</t>
-  </si>
-  <si>
-    <t>promoting air travel</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>Lee Harvey Oswald</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>preventing terrorism</t>
-  </si>
-  <si>
-    <t>Kevin Smith</t>
-  </si>
-  <si>
-    <t>podcasting about movies</t>
-  </si>
-  <si>
-    <t>Steve Ballmer</t>
-  </si>
-  <si>
-    <t>running a technology company</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Bob Cratchit</t>
-  </si>
-  <si>
-    <t>writing in ledgers</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Natasha Romanova</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Edmund Blackadder</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>René Descartes</t>
-  </si>
-  <si>
-    <t>teaching philosophy</t>
-  </si>
-  <si>
-    <t>Leonardo Da Vinci</t>
-  </si>
-  <si>
-    <t>painting realistic pictures</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>escaping from water tanks</t>
-  </si>
-  <si>
-    <t>Frasier Crane</t>
+    <t>Robert De Niro</t>
+  </si>
+  <si>
+    <t>Jenna Maroney</t>
+  </si>
+  <si>
+    <t>singing on TV shows</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
   </si>
   <si>
     <t>Ben Affleck</t>
   </si>
   <si>
-    <t>avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Judge Joe Dredd</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>chasing flappers</t>
-  </si>
-  <si>
-    <t>Barney Gumble</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>playing tough guys</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>smoking herb</t>
-  </si>
-  <si>
-    <t>Stanley Kowalski</t>
-  </si>
-  <si>
-    <t>moaning about women</t>
-  </si>
-  <si>
-    <t>Joan Crawford</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>killing murderers</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>Rudy Giuliani</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>Cinderella</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Napoleon Bonaparte</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>Victor Meldrew</t>
-  </si>
-  <si>
-    <t>Conan the Barbarian</t>
-  </si>
-  <si>
-    <t>Paul McCartney</t>
-  </si>
-  <si>
-    <t>Nancy Drew</t>
-  </si>
-  <si>
-    <t>William the Conqueror</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Jesse Pinkman</t>
-  </si>
-  <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>Raymond Chandler</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>winning Michelin stars</t>
-  </si>
-  <si>
-    <t>Sylvia Plath</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>Jor El</t>
-  </si>
-  <si>
-    <t>inventing new technologies</t>
-  </si>
-  <si>
-    <t>George Michael</t>
-  </si>
-  <si>
-    <t>Alexander Fleming</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>painting dark pictures</t>
-  </si>
-  <si>
-    <t>Bob Woodward</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>falling gracefully</t>
-  </si>
-  <si>
-    <t>offering medical opinions</t>
-  </si>
-  <si>
-    <t>Chelsea Manning</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>making escape plans</t>
-  </si>
-  <si>
-    <t>Mr. Spock</t>
-  </si>
-  <si>
-    <t>Ned Flanders</t>
-  </si>
-  <si>
-    <t>being a good neighbor</t>
-  </si>
-  <si>
-    <t>Obi-wan Kenobi</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Larry Page</t>
-  </si>
-  <si>
-    <t>building a search engine</t>
-  </si>
-  <si>
-    <t>Barbie</t>
+    <t>making bad movie choices</t>
+  </si>
+  <si>
+    <t>John Wayne</t>
+  </si>
+  <si>
+    <t>starring in cowboy movies</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1065,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.9609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.51171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1076,29 +1100,29 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1120,18 +1144,18 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1166,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -1153,7 +1177,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1175,7 +1199,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1186,7 +1210,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1230,7 +1254,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1241,7 +1265,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1252,7 +1276,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1263,7 +1287,7 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -1274,7 +1298,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -1282,18 +1306,18 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1301,219 +1325,219 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1521,252 +1545,252 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1774,24 +1798,24 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -1802,7 +1826,7 @@
         <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -1813,7 +1837,7 @@
         <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
@@ -1824,7 +1848,7 @@
         <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -1835,7 +1859,7 @@
         <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -1843,10 +1867,10 @@
         <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -1854,139 +1878,139 @@
         <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1994,21 +2018,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2016,76 +2040,76 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2093,252 +2117,252 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B115" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B116" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B117" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B118" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2346,98 +2370,98 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="B122" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B124" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B125" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2445,32 +2469,32 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B129" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B130" t="s">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2478,43 +2502,43 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B131" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B134" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2522,142 +2546,142 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B136" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B137" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B138" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B139" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B140" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>92</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="B143" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B144" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B145" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B146" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>267</v>
+        <v>24</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>272</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2665,164 +2689,164 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B148" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B149" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B150" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B151" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="B152" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B153" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B154" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B155" t="s">
-        <v>133</v>
+        <v>287</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B156" t="s">
-        <v>112</v>
+        <v>289</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B158" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="B159" t="s">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B160" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B161" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B162" t="s">
-        <v>292</v>
+        <v>94</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -2830,211 +2854,211 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B163" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B164" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B165" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B166" t="s">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B167" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="B168" t="s">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B169" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B171" t="s">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
       <c r="B172" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B173" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B174" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B175" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="B176" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B177" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B178" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B179" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B180" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B181" t="s">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject120.xlsx
+++ b/StaffProject120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="329">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,49 +23,403 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Niles Crane</t>
-  </si>
-  <si>
-    <t>nurturing sibling rivalry</t>
+    <t>Lara Croft</t>
+  </si>
+  <si>
+    <t>unearthing ancient tombs</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Clarice Starling</t>
-  </si>
-  <si>
-    <t>hunting serial killers</t>
+    <t>Boudicca</t>
+  </si>
+  <si>
+    <t>leading revolts</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Jane Goodall</t>
+  </si>
+  <si>
+    <t>living amongst apes</t>
+  </si>
+  <si>
+    <t>Jay Z</t>
+  </si>
+  <si>
+    <t>producing Hipbop records</t>
+  </si>
+  <si>
+    <t>Nigel Farage</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>defending freedom</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>letting one's hair down</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>playing classical piano</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>dating supermodels</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>performing moon walks</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>telling epic tales</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Marie Curie</t>
+  </si>
+  <si>
+    <t>extracting Radium from pitchblend</t>
+  </si>
+  <si>
+    <t>Walt Longmire</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>John Travolta</t>
+  </si>
+  <si>
+    <t>playing camp villains</t>
+  </si>
+  <si>
+    <t>Wyatt Earp</t>
+  </si>
+  <si>
+    <t>arresting criminals</t>
+  </si>
+  <si>
+    <t>Gianni Versace</t>
+  </si>
+  <si>
+    <t>designing clothes</t>
+  </si>
+  <si>
+    <t>Morpheus</t>
+  </si>
+  <si>
+    <t>searching for the messiah</t>
   </si>
   <si>
     <t>Sid Vicious</t>
   </si>
   <si>
-    <t>singing punk rock songs</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Commander Data</t>
-  </si>
-  <si>
-    <t>piloting a spaceship</t>
-  </si>
-  <si>
-    <t>Morrissey</t>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>Oscar Pistorius</t>
+  </si>
+  <si>
+    <t>running races</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>riding a bicycle</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>running a software company</t>
+  </si>
+  <si>
+    <t>Mr. Edward Hyde</t>
+  </si>
+  <si>
+    <t>expressing violent urges</t>
+  </si>
+  <si>
+    <t>Norman Rockwell</t>
+  </si>
+  <si>
+    <t>painting folksy pictures</t>
+  </si>
+  <si>
+    <t>Rush Limbaugh</t>
+  </si>
+  <si>
+    <t>Woody Guthrie</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>Annie Oakley</t>
+  </si>
+  <si>
+    <t>piquing public interest</t>
+  </si>
+  <si>
+    <t>Dana Scully</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Vincent Van Gogh</t>
+  </si>
+  <si>
+    <t>going slowly mad</t>
+  </si>
+  <si>
+    <t>Winona Ryder</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Kylie Minogue</t>
+  </si>
+  <si>
+    <t>Jack Reacher</t>
+  </si>
+  <si>
+    <t>Rudy Giuliani</t>
+  </si>
+  <si>
+    <t>running a large metropolitan city</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Rafael Nadal</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>changing privacy settings</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>winning Michelin stars</t>
+  </si>
+  <si>
+    <t>Neil Armstrong</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>Cher</t>
+  </si>
+  <si>
+    <t>Christiane Amanpour</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Sophocles</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>Queen Elizabeth I</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>cooking for friends</t>
+  </si>
+  <si>
+    <t>Johnny Depp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenneth Parcell </t>
+  </si>
+  <si>
+    <t>leading tour groups</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>Mark Twain</t>
+  </si>
+  <si>
+    <t>writing folksy fiction</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>fighting for liberty</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>pushing anti-trust legislation</t>
+  </si>
+  <si>
+    <t>Ridley Scott</t>
+  </si>
+  <si>
+    <t>making science fiction movies</t>
+  </si>
+  <si>
+    <t>Jim Morrison</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Rainier Luftwaffe Wolfcastle</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Wilbur Wright</t>
+  </si>
+  <si>
+    <t>promoting new technologies</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>commiting perjury</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>Freddy Krueger</t>
+  </si>
+  <si>
+    <t>killing teenagers</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
   </si>
   <si>
     <t>singing pop songs</t>
   </si>
   <si>
-    <t>Uriah Heap</t>
-  </si>
-  <si>
-    <t>practicing insincerity</t>
-  </si>
-  <si>
-    <t>scandalizing polite society</t>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>coasting on past glories</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Carl Bernstein</t>
+  </si>
+  <si>
+    <t>following the money</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>playing intense characters</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>singing blues songs</t>
   </si>
   <si>
     <t>Francis Bacon</t>
@@ -74,25 +428,148 @@
     <t>painting dark pictures</t>
   </si>
   <si>
-    <t>Angelina Jolie</t>
-  </si>
-  <si>
-    <t>adopting children</t>
-  </si>
-  <si>
-    <t>The Artful Dodger</t>
-  </si>
-  <si>
-    <t>picking pockets</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>CS</t>
+    <t>Victor Frankenstein</t>
+  </si>
+  <si>
+    <t>playing God</t>
+  </si>
+  <si>
+    <t>Robert Redford</t>
+  </si>
+  <si>
+    <t>running film festivals</t>
+  </si>
+  <si>
+    <t>E.T.</t>
+  </si>
+  <si>
+    <t>phoning home</t>
+  </si>
+  <si>
+    <t>Jeremy Clarkson</t>
+  </si>
+  <si>
+    <t>test-driving cars</t>
+  </si>
+  <si>
+    <t>Seth MacFarlane</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>Beatrix Potter</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Robert Mueller</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>John McCain</t>
+  </si>
+  <si>
+    <t>running for the senate</t>
+  </si>
+  <si>
+    <t>Dr. Julius No</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>Travis Bickle</t>
+  </si>
+  <si>
+    <t>planning assassinations</t>
+  </si>
+  <si>
+    <t>Neville Chamberlain</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators</t>
+  </si>
+  <si>
+    <t>Lionel Hutz</t>
+  </si>
+  <si>
+    <t>repairing shoes</t>
+  </si>
+  <si>
+    <t>Deep Throat</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>Timothy McGee</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>Muhammad Ali</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>Katharine Hepburn</t>
+  </si>
+  <si>
+    <t>writing epic poetry</t>
+  </si>
+  <si>
+    <t>Mad Max Rockatansky</t>
+  </si>
+  <si>
+    <t>surviving in a post-apocalyptic world</t>
+  </si>
+  <si>
+    <t>G. Gordon Liddy</t>
+  </si>
+  <si>
+    <t>pulling dirty political tricks</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>studying symbols</t>
+  </si>
+  <si>
+    <t>Julia Roberts</t>
+  </si>
+  <si>
+    <t>Ludwig Van Beethoven</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>Quasimodo</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
   </si>
   <si>
     <t>Gloria Steinem</t>
@@ -101,7 +578,55 @@
     <t>moaning about men</t>
   </si>
   <si>
-    <t>Sammy Davis Jr.</t>
+    <t>Troy McClure</t>
+  </si>
+  <si>
+    <t>hosting educational films</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Johnny Carson</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>Rick Sanchez</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>promoting movie violence</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>collecting stamps</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>performing stand-up</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>investing in real estate</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
@@ -110,886 +635,370 @@
     <t>fighting civil wars</t>
   </si>
   <si>
-    <t>Judy Garland</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Tina Turner</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>making witty remarks</t>
-  </si>
-  <si>
-    <t>Warren Buffett</t>
-  </si>
-  <si>
-    <t>giving investment advice</t>
-  </si>
-  <si>
-    <t>Tyra Banks</t>
-  </si>
-  <si>
-    <t>modeling clothes</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>writing rap songs</t>
+  </si>
+  <si>
+    <t>Monica Geller</t>
+  </si>
+  <si>
+    <t>fussing about cleanliness</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t>crooning love songs</t>
+  </si>
+  <si>
+    <t>Tom Waits</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>Luis Suarez</t>
+  </si>
+  <si>
+    <t>biting opponents</t>
+  </si>
+  <si>
+    <t>Inspector Gadget</t>
+  </si>
+  <si>
+    <t>using gadgets</t>
+  </si>
+  <si>
+    <t>Fletcher Christian</t>
+  </si>
+  <si>
+    <t>plotting mutinies</t>
+  </si>
+  <si>
+    <t>making maverick choices</t>
+  </si>
+  <si>
+    <t>Morty Smith</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
+    <t>Jon Stewart</t>
+  </si>
+  <si>
+    <t>John Merrick</t>
+  </si>
+  <si>
+    <t>eluding the public gaze</t>
+  </si>
+  <si>
+    <t>Eliza Doolittle</t>
+  </si>
+  <si>
+    <t>handing out flowers</t>
+  </si>
+  <si>
+    <t>Carl Von Clausewitz</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>Tony Soprano</t>
+  </si>
+  <si>
+    <t>starring in animated movies</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>Beyoncé</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Andrew Lloyd Webber</t>
+  </si>
+  <si>
+    <t>making insipid musicals</t>
+  </si>
+  <si>
+    <t>Don Draper</t>
+  </si>
+  <si>
+    <t>creating adverts</t>
+  </si>
+  <si>
+    <t>Matt Groening</t>
+  </si>
+  <si>
+    <t>Juliet Capulet</t>
+  </si>
+  <si>
+    <t>watching the sun rise</t>
+  </si>
+  <si>
+    <t>Doctor Stephen Strange</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>Adolf Eichmann</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>tricking criminals</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Thomas Pynchon</t>
+  </si>
+  <si>
+    <t>Inspector Jacques Clouseau</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
   </si>
   <si>
     <t>Dr. Greg House</t>
   </si>
   <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>writing on wax tablets</t>
-  </si>
-  <si>
-    <t>Christina Aguilera</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>brokering peace deals</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Meryl Streep</t>
-  </si>
-  <si>
-    <t>winning Oscars</t>
-  </si>
-  <si>
-    <t>Captain America</t>
+    <t>treating diseases</t>
+  </si>
+  <si>
+    <t>Polonius</t>
+  </si>
+  <si>
+    <t>coining sententious maxims</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>chasing interns</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Michael Moore</t>
+  </si>
+  <si>
+    <t>making provocative documentaries</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>condescending to customers</t>
+  </si>
+  <si>
+    <t>Michael Phelps</t>
+  </si>
+  <si>
+    <t>winning swimming competitions</t>
+  </si>
+  <si>
+    <t>Sylvia Plath</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>Yosemite Sam</t>
+  </si>
+  <si>
+    <t>losing control</t>
+  </si>
+  <si>
+    <t>Olive Oyl</t>
+  </si>
+  <si>
+    <t>doing the Charleston</t>
+  </si>
+  <si>
+    <t>Sean Connery</t>
+  </si>
+  <si>
+    <t>playing James Bond</t>
+  </si>
+  <si>
+    <t>Rain Man</t>
+  </si>
+  <si>
+    <t>counting tooth picks</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>winning cycling races</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>James Dean</t>
+  </si>
+  <si>
+    <t>Jeff Bezos</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>Obi-wan Kenobi</t>
+  </si>
+  <si>
+    <t>fighting for the resistance</t>
+  </si>
+  <si>
+    <t>P. T. Barnum</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>Tom Sawyer</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>Walt Whitman</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>bridging cultures</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>singing romantic songs</t>
+  </si>
+  <si>
+    <t>pushing haute couture</t>
+  </si>
+  <si>
+    <t>Hans Moleman</t>
+  </si>
+  <si>
+    <t>getting run over by cars</t>
+  </si>
+  <si>
+    <t>Shrek</t>
   </si>
   <si>
     <t>defending the weak</t>
   </si>
   <si>
-    <t>Jay Gatsby</t>
-  </si>
-  <si>
-    <t>throwing lavish parties</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>Sydney Bristow</t>
-  </si>
-  <si>
-    <t>spying for the CIA</t>
-  </si>
-  <si>
-    <t>Joey Tribbiani</t>
-  </si>
-  <si>
-    <t>starring in daytime soap operas</t>
-  </si>
-  <si>
-    <t>Caitlyn Jenner</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Melania Trump</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Michael Moore</t>
-  </si>
-  <si>
-    <t>making provocative documentaries</t>
-  </si>
-  <si>
-    <t>John Wayne</t>
-  </si>
-  <si>
-    <t>walking like a man</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Lisbeth Salander</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>making suspense movies</t>
-  </si>
-  <si>
-    <t>Mickey Rourke</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>drinking too much red wine</t>
-  </si>
-  <si>
-    <t>Jerry Seinfeld</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>Inspector Endeavour Morse</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Gustavo Fring</t>
-  </si>
-  <si>
-    <t>selling chrystal meth</t>
-  </si>
-  <si>
-    <t>Tracy Jordan</t>
-  </si>
-  <si>
-    <t>Victor Meldrew</t>
+    <t>Johannes Gutenberg</t>
+  </si>
+  <si>
+    <t>C-3PO</t>
   </si>
   <si>
     <t>complaining about everything</t>
   </si>
   <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>designing modern buildings</t>
-  </si>
-  <si>
-    <t>RuPaul</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Jerry Springer</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows</t>
-  </si>
-  <si>
-    <t>Jean-Luc Picard</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>Truman Capote</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>Charlie Harper</t>
-  </si>
-  <si>
-    <t>seducing young women</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>chasing interns</t>
-  </si>
-  <si>
-    <t>Janet Jackson</t>
-  </si>
-  <si>
-    <t>Richard Nixon</t>
-  </si>
-  <si>
-    <t>pulling dirty political tricks</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>collecting treasures</t>
-  </si>
-  <si>
-    <t>Martin Luther King</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>Alexander the Great</t>
-  </si>
-  <si>
-    <t>building empires</t>
-  </si>
-  <si>
-    <t>Steve Guttenberg</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>making new wave movies</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
-  </si>
-  <si>
-    <t>Biff Tannen</t>
-  </si>
-  <si>
-    <t>mangling idioms</t>
-  </si>
-  <si>
-    <t>Mike  Pence</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>Marilyn Monroe</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Tom Sawyer</t>
-  </si>
-  <si>
-    <t>Wilkins Micawber</t>
-  </si>
-  <si>
-    <t>buying on credit</t>
-  </si>
-  <si>
-    <t>Holly Golightly</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Mae West</t>
-  </si>
-  <si>
-    <t>trading innuendo</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
-  </si>
-  <si>
-    <t>Pope Benedict XVI</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Waylon Smithers</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>Lando Calrissian</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>Richard Branson</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>Tom Hanks</t>
-  </si>
-  <si>
-    <t>Leon Trotsky</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Virginia Woolf</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Hans Gruber</t>
-  </si>
-  <si>
-    <t>organizing armed robberies</t>
-  </si>
-  <si>
-    <t>Don Draper</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>Mrs. Doubtfire</t>
-  </si>
-  <si>
-    <t>impersonating women</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>Tom Brady</t>
-  </si>
-  <si>
-    <t>signing sports memorabilia</t>
-  </si>
-  <si>
-    <t>Jane Goodall</t>
-  </si>
-  <si>
-    <t>living amongst apes</t>
-  </si>
-  <si>
-    <t>Michael O'Leary</t>
-  </si>
-  <si>
-    <t>selling cheap airline seats</t>
+    <t>studying icons</t>
+  </si>
+  <si>
+    <t>playing the banjo</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Adolf Hitler</t>
+  </si>
+  <si>
+    <t>creating an axis of evil</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>JD Salinger</t>
   </si>
   <si>
     <t>Santa Claus</t>
   </si>
   <si>
     <t>delivering presents</t>
-  </si>
-  <si>
-    <t>playing everyman characters</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>Green Lantern</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>stealing jewels</t>
-  </si>
-  <si>
-    <t>Optimus Prime</t>
-  </si>
-  <si>
-    <t>Thomas Edison</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>John McClane</t>
-  </si>
-  <si>
-    <t>rescuing hostages</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>flirting with rednecks</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>promoting hair products</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>promoting big business</t>
-  </si>
-  <si>
-    <t>Frodo Baggins</t>
-  </si>
-  <si>
-    <t>disposing of unwanted jewelry</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>managing large development projects</t>
-  </si>
-  <si>
-    <t>Nelson Muntz</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>Selma Bouvier</t>
-  </si>
-  <si>
-    <t>smoking Laramie Hi-Tars</t>
-  </si>
-  <si>
-    <t>Carl Von Clausewitz</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>clipping coupons</t>
-  </si>
-  <si>
-    <t>Pablo Picasso</t>
-  </si>
-  <si>
-    <t>painting abstract pictures</t>
-  </si>
-  <si>
-    <t>speaking with funny accents</t>
-  </si>
-  <si>
-    <t>Jimmy Cagney</t>
-  </si>
-  <si>
-    <t>Cristiano Ronaldo</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>King David</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>pretending to wrestle</t>
-  </si>
-  <si>
-    <t>Frasier Crane</t>
-  </si>
-  <si>
-    <t>analyzing the sub-conscious</t>
-  </si>
-  <si>
-    <t>Naomi Campbell</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>Steve Martin</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>Christiane Amanpour</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>Sophocles</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>Cher</t>
-  </si>
-  <si>
-    <t>Boy George</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>writing purple prose</t>
-  </si>
-  <si>
-    <t>Meghan Markle</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>Julian Assange</t>
-  </si>
-  <si>
-    <t>promoting openness</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Joe DiMaggio</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>writing crime stories</t>
-  </si>
-  <si>
-    <t>Lucifer</t>
-  </si>
-  <si>
-    <t>burning the wicked</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>James Dean</t>
-  </si>
-  <si>
-    <t>racing fast cars</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Gandalf the Grey</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>Miss Havisham</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>Oscar Pistorius</t>
-  </si>
-  <si>
-    <t>running races</t>
-  </si>
-  <si>
-    <t>Marge Simpson</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>Edna Krabappel</t>
-  </si>
-  <si>
-    <t>smoking during recess</t>
-  </si>
-  <si>
-    <t>Jack The Ripper</t>
-  </si>
-  <si>
-    <t>terrorizing prostitutes</t>
-  </si>
-  <si>
-    <t>Tim Berners-Lee</t>
-  </si>
-  <si>
-    <t>promoting the Web</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>Martha Stewart</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>commanding a whaling ship</t>
-  </si>
-  <si>
-    <t>Russell Brand</t>
-  </si>
-  <si>
-    <t>fomenting social revolution</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>singing romantic songs</t>
-  </si>
-  <si>
-    <t>Staff Member</t>
-  </si>
-  <si>
-    <t>Piers Morgan</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>Sun Tzu</t>
-  </si>
-  <si>
-    <t>Robinson Crusoe</t>
-  </si>
-  <si>
-    <t>making home-made clothes</t>
-  </si>
-  <si>
-    <t>J. Edgar Hoover</t>
-  </si>
-  <si>
-    <t>running the FBI</t>
-  </si>
-  <si>
-    <t>Pete Sampras</t>
-  </si>
-  <si>
-    <t>winning tennis matches</t>
-  </si>
-  <si>
-    <t>Dean Winchester</t>
-  </si>
-  <si>
-    <t>killing demons</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>chasing murderers</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>commiting perjury</t>
-  </si>
-  <si>
-    <t>posing riddles</t>
-  </si>
-  <si>
-    <t>Lara Croft</t>
-  </si>
-  <si>
-    <t>looking for hidden treasures</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>singing experimental songs</t>
-  </si>
-  <si>
-    <t>Kim Philby</t>
-  </si>
-  <si>
-    <t>stabbing in the back</t>
-  </si>
-  <si>
-    <t>Johann von Goethe</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>attending cocktail parties</t>
-  </si>
-  <si>
-    <t>digging for antiquities</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>staring at the moon</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t>Joe Louis</t>
-  </si>
-  <si>
-    <t>knocking out opponents</t>
-  </si>
-  <si>
-    <t>William Randolph Hearst</t>
-  </si>
-  <si>
-    <t>publishing newspapers</t>
-  </si>
-  <si>
-    <t>Socrates</t>
-  </si>
-  <si>
-    <t>teaching the next generation</t>
-  </si>
-  <si>
-    <t>Modesty Blaise</t>
-  </si>
-  <si>
-    <t>pulling capers</t>
-  </si>
-  <si>
-    <t>Jenna Jameson</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>building giant walls</t>
-  </si>
-  <si>
-    <t>E.T.</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>Jim Morrison</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>hunting raccoons</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1056,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.08203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.29296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1082,18 +1091,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1104,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1115,279 +1124,279 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1395,98 +1404,98 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1494,35 +1503,35 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1533,7 +1542,7 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1544,7 +1553,7 @@
         <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1555,7 +1564,7 @@
         <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1563,7 +1572,7 @@
         <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1571,13 +1580,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -1588,7 +1597,7 @@
         <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1599,7 +1608,7 @@
         <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -1610,7 +1619,7 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -1621,7 +1630,7 @@
         <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -1632,7 +1641,7 @@
         <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -1643,7 +1652,7 @@
         <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -1654,7 +1663,7 @@
         <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -1662,21 +1671,21 @@
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
         <v>111</v>
       </c>
-      <c r="B57" t="s">
-        <v>71</v>
-      </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1687,7 +1696,7 @@
         <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1698,7 +1707,7 @@
         <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -1706,32 +1715,32 @@
         <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
         <v>118</v>
       </c>
-      <c r="B61" t="s">
-        <v>119</v>
-      </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
         <v>120</v>
       </c>
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -1742,7 +1751,7 @@
         <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -1750,7 +1759,7 @@
         <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1758,35 +1767,35 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -1794,51 +1803,51 @@
         <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1846,87 +1855,87 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1934,109 +1943,109 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2044,21 +2053,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2066,43 +2075,43 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2110,43 +2119,43 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B99" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2154,32 +2163,32 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2187,43 +2196,43 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" t="s">
         <v>192</v>
       </c>
-      <c r="B104" t="s">
-        <v>193</v>
-      </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B105" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2231,296 +2240,296 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B111" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B112" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="B114" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C114" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B115" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C116" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C118" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B119" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B120" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B122" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B124" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B129" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="B130" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B132" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B133" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B134" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2528,54 +2537,54 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="C135" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B136" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C136" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B137" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B139" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2583,43 +2592,43 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B140" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B141" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="B142" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B143" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2627,120 +2636,120 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B145" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B146" t="s">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="C146" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B147" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B148" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B149" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B150" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="C151" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B153" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="C153" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B154" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2748,76 +2757,76 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B155" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B156" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C156" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B157" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B158" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C158" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B159" t="s">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B160" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>295</v>
       </c>
       <c r="B161" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2825,54 +2834,54 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B162" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B163" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B164" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B165" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B166" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -2880,167 +2889,167 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B167" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="B168" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C168" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B169" t="s">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B170" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B171" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="C171" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B172" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="B173" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>314</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="B175" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B176" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C176" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B177" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>320</v>
+        <v>214</v>
       </c>
       <c r="B178" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B179" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B180" t="s">
-        <v>324</v>
+        <v>184</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B181" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
